--- a/Fase1_Datamanipulation/processed_output_labels.xlsx
+++ b/Fase1_Datamanipulation/processed_output_labels.xlsx
@@ -61507,4182 +61507,4182 @@
     </row>
     <row r="5553">
       <c r="A5553" t="n">
-        <v>0.2481203533615762</v>
+        <v>0.6171371985965509</v>
       </c>
       <c r="B5553" t="n">
-        <v>0.4794878742348958</v>
+        <v>0.246802200206986</v>
       </c>
       <c r="C5553" t="n">
-        <v>0.272391772403528</v>
+        <v>0.1360606011964631</v>
       </c>
     </row>
     <row r="5554">
       <c r="A5554" t="n">
-        <v>0.2015963402199515</v>
+        <v>0.508287708283871</v>
       </c>
       <c r="B5554" t="n">
-        <v>0.438445926462822</v>
+        <v>0.2722200302961664</v>
       </c>
       <c r="C5554" t="n">
-        <v>0.3599577333172265</v>
+        <v>0.2194922614199626</v>
       </c>
     </row>
     <row r="5555">
       <c r="A5555" t="n">
-        <v>0.1658065768840806</v>
+        <v>0.3890618866937067</v>
       </c>
       <c r="B5555" t="n">
-        <v>0.3919329453586791</v>
+        <v>0.2856208295172053</v>
       </c>
       <c r="C5555" t="n">
-        <v>0.4422604777572404</v>
+        <v>0.3253172837890881</v>
       </c>
     </row>
     <row r="5556">
       <c r="A5556" t="n">
-        <v>0.1203717549242107</v>
+        <v>0.1531718806746166</v>
       </c>
       <c r="B5556" t="n">
-        <v>0.296945776901395</v>
+        <v>0.2421684729725467</v>
       </c>
       <c r="C5556" t="n">
-        <v>0.5826824681743943</v>
+        <v>0.6046596463528368</v>
       </c>
     </row>
     <row r="5557">
       <c r="A5557" t="n">
-        <v>0.1358817761200168</v>
+        <v>0.2513416812185309</v>
       </c>
       <c r="B5557" t="n">
-        <v>0.3430557845541231</v>
+        <v>0.2808608552797716</v>
       </c>
       <c r="C5557" t="n">
-        <v>0.5210624393258602</v>
+        <v>0.4677974635016975</v>
       </c>
     </row>
     <row r="5558">
       <c r="A5558" t="n">
-        <v>0.1714223197401433</v>
+        <v>0.4090247858555539</v>
       </c>
       <c r="B5558" t="n">
-        <v>0.4236124580369214</v>
+        <v>0.3038654166213972</v>
       </c>
       <c r="C5558" t="n">
-        <v>0.4049652222229352</v>
+        <v>0.2871097975230489</v>
       </c>
     </row>
     <row r="5559">
       <c r="A5559" t="n">
-        <v>0.174468076964993</v>
+        <v>0.411765580986754</v>
       </c>
       <c r="B5559" t="n">
-        <v>0.4094803557287583</v>
+        <v>0.2920929513733885</v>
       </c>
       <c r="C5559" t="n">
-        <v>0.4160515673062487</v>
+        <v>0.2961414676398574</v>
       </c>
     </row>
     <row r="5560">
       <c r="A5560" t="n">
-        <v>0.1370703031417955</v>
+        <v>0.2513990780772186</v>
       </c>
       <c r="B5560" t="n">
-        <v>0.3139401106313749</v>
+        <v>0.2522765617703328</v>
       </c>
       <c r="C5560" t="n">
-        <v>0.5489895862268295</v>
+        <v>0.4963243601524487</v>
       </c>
     </row>
     <row r="5561">
       <c r="A5561" t="n">
-        <v>0.3642413845469896</v>
+        <v>0.772294839978186</v>
       </c>
       <c r="B5561" t="n">
-        <v>0.4247770134740091</v>
+        <v>0.1530249987967388</v>
       </c>
       <c r="C5561" t="n">
-        <v>0.2109816019790015</v>
+        <v>0.07468016122507509</v>
       </c>
     </row>
     <row r="5562">
       <c r="A5562" t="n">
-        <v>0.2077050305960176</v>
+        <v>0.5248686925562358</v>
       </c>
       <c r="B5562" t="n">
-        <v>0.4582159964472604</v>
+        <v>0.2778567885931133</v>
       </c>
       <c r="C5562" t="n">
-        <v>0.334078972956722</v>
+        <v>0.1972745188506509</v>
       </c>
     </row>
     <row r="5563">
       <c r="A5563" t="n">
-        <v>0.1422370595108355</v>
+        <v>0.306137069275864</v>
       </c>
       <c r="B5563" t="n">
-        <v>0.3892495661510519</v>
+        <v>0.309918569057467</v>
       </c>
       <c r="C5563" t="n">
-        <v>0.4685133743381126</v>
+        <v>0.383944361666669</v>
       </c>
     </row>
     <row r="5564">
       <c r="A5564" t="n">
-        <v>0.2036090153947601</v>
+        <v>0.5321384658113157</v>
       </c>
       <c r="B5564" t="n">
-        <v>0.4190191090934642</v>
+        <v>0.247357674502344</v>
       </c>
       <c r="C5564" t="n">
-        <v>0.3773718755117756</v>
+        <v>0.2205038596863403</v>
       </c>
     </row>
     <row r="5565">
       <c r="A5565" t="n">
-        <v>0.1960916248715082</v>
+        <v>0.5011495944772363</v>
       </c>
       <c r="B5565" t="n">
-        <v>0.4488067753611772</v>
+        <v>0.2814843163519142</v>
       </c>
       <c r="C5565" t="n">
-        <v>0.3551015997673146</v>
+        <v>0.2173660891708495</v>
       </c>
     </row>
     <row r="5566">
       <c r="A5566" t="n">
-        <v>0.182695946405573</v>
+        <v>0.4692546816613071</v>
       </c>
       <c r="B5566" t="n">
-        <v>0.4255186618860571</v>
+        <v>0.2778005798466987</v>
       </c>
       <c r="C5566" t="n">
-        <v>0.3917853917083697</v>
+        <v>0.2529447384919941</v>
       </c>
     </row>
     <row r="5567">
       <c r="A5567" t="n">
-        <v>0.3319742010849938</v>
+        <v>0.7541800306606952</v>
       </c>
       <c r="B5567" t="n">
-        <v>0.4295357681591741</v>
+        <v>0.158982563641618</v>
       </c>
       <c r="C5567" t="n">
-        <v>0.2384900307558321</v>
+        <v>0.08683740569768693</v>
       </c>
     </row>
     <row r="5568">
       <c r="A5568" t="n">
-        <v>0.1810967057699699</v>
+        <v>0.4630522095164913</v>
       </c>
       <c r="B5568" t="n">
-        <v>0.4130858333320123</v>
+        <v>0.2715268590075576</v>
       </c>
       <c r="C5568" t="n">
-        <v>0.405817460898018</v>
+        <v>0.2654209314759512</v>
       </c>
     </row>
     <row r="5569">
       <c r="A5569" t="n">
-        <v>0.1185821318703763</v>
+        <v>0.1817103417049922</v>
       </c>
       <c r="B5569" t="n">
-        <v>0.3242329083794538</v>
+        <v>0.2690092057766823</v>
       </c>
       <c r="C5569" t="n">
-        <v>0.5571849597501698</v>
+        <v>0.5492804525183256</v>
       </c>
     </row>
     <row r="5570">
       <c r="A5570" t="n">
-        <v>0.1604820604611263</v>
+        <v>0.3977130914531635</v>
       </c>
       <c r="B5570" t="n">
-        <v>0.4321847672094202</v>
+        <v>0.3120584321466922</v>
       </c>
       <c r="C5570" t="n">
-        <v>0.4073331723294535</v>
+        <v>0.2902284764001445</v>
       </c>
     </row>
     <row r="5571">
       <c r="A5571" t="n">
-        <v>0.5207878515314436</v>
+        <v>0.8893853350164894</v>
       </c>
       <c r="B5571" t="n">
-        <v>0.3411160427530956</v>
+        <v>0.07894530275149797</v>
       </c>
       <c r="C5571" t="n">
-        <v>0.1380961057154608</v>
+        <v>0.03166936223201259</v>
       </c>
     </row>
     <row r="5572">
       <c r="A5572" t="n">
-        <v>0.1167872837399401</v>
+        <v>0.1398240805486868</v>
       </c>
       <c r="B5572" t="n">
-        <v>0.2630918804119562</v>
+        <v>0.1975033162511357</v>
       </c>
       <c r="C5572" t="n">
-        <v>0.6201208358481037</v>
+        <v>0.6626726032001774</v>
       </c>
     </row>
     <row r="5573">
       <c r="A5573" t="n">
-        <v>0.289012627396839</v>
+        <v>0.7010816867543576</v>
       </c>
       <c r="B5573" t="n">
-        <v>0.4314589481489966</v>
+        <v>0.182543283659196</v>
       </c>
       <c r="C5573" t="n">
-        <v>0.2795284244541643</v>
+        <v>0.1163750295864463</v>
       </c>
     </row>
     <row r="5574">
       <c r="A5574" t="n">
-        <v>0.1572909682061864</v>
+        <v>0.3727425375388072</v>
       </c>
       <c r="B5574" t="n">
-        <v>0.3707525950625586</v>
+        <v>0.2714994986772327</v>
       </c>
       <c r="C5574" t="n">
-        <v>0.471956436731255</v>
+        <v>0.3557579637839601</v>
       </c>
     </row>
     <row r="5575">
       <c r="A5575" t="n">
-        <v>0.167661723590603</v>
+        <v>0.4147401449126194</v>
       </c>
       <c r="B5575" t="n">
-        <v>0.4428526487532563</v>
+        <v>0.3142107402218431</v>
       </c>
       <c r="C5575" t="n">
-        <v>0.3894856276561408</v>
+        <v>0.2710491148655374</v>
       </c>
     </row>
     <row r="5576">
       <c r="A5576" t="n">
-        <v>0.4224784315688654</v>
+        <v>0.8320676754523715</v>
       </c>
       <c r="B5576" t="n">
-        <v>0.4041024742500282</v>
+        <v>0.1179924329309248</v>
       </c>
       <c r="C5576" t="n">
-        <v>0.1734190941811063</v>
+        <v>0.04993989161670378</v>
       </c>
     </row>
     <row r="5577">
       <c r="A5577" t="n">
-        <v>0.1635010938482863</v>
+        <v>0.3992589003270283</v>
       </c>
       <c r="B5577" t="n">
-        <v>0.4128477073719251</v>
+        <v>0.2967742340393806</v>
       </c>
       <c r="C5577" t="n">
-        <v>0.4236511987797886</v>
+        <v>0.3039668656335912</v>
       </c>
     </row>
     <row r="5578">
       <c r="A5578" t="n">
-        <v>0.1122807288512598</v>
+        <v>0.08620087319071178</v>
       </c>
       <c r="B5578" t="n">
-        <v>0.2352360340369702</v>
+        <v>0.1517334362827061</v>
       </c>
       <c r="C5578" t="n">
-        <v>0.6524832371117699</v>
+        <v>0.762065690526582</v>
       </c>
     </row>
     <row r="5579">
       <c r="A5579" t="n">
-        <v>0.193145751782348</v>
+        <v>0.483459689964595</v>
       </c>
       <c r="B5579" t="n">
-        <v>0.4429916522193971</v>
+        <v>0.2861927961416592</v>
       </c>
       <c r="C5579" t="n">
-        <v>0.3638625959982548</v>
+        <v>0.2303475138937457</v>
       </c>
     </row>
     <row r="5580">
       <c r="A5580" t="n">
-        <v>0.1193647036140879</v>
+        <v>0.1800984217069965</v>
       </c>
       <c r="B5580" t="n">
-        <v>0.3033938309998752</v>
+        <v>0.2466330697948125</v>
       </c>
       <c r="C5580" t="n">
-        <v>0.5772414653860369</v>
+        <v>0.573268508498191</v>
       </c>
     </row>
     <row r="5581">
       <c r="A5581" t="n">
-        <v>0.1552048363168847</v>
+        <v>0.3754858380299871</v>
       </c>
       <c r="B5581" t="n">
-        <v>0.4021025027613598</v>
+        <v>0.2960709687957188</v>
       </c>
       <c r="C5581" t="n">
-        <v>0.4426926609217556</v>
+        <v>0.328443193174294</v>
       </c>
     </row>
     <row r="5582">
       <c r="A5582" t="n">
-        <v>0.1542348316446845</v>
+        <v>0.3720588688075372</v>
       </c>
       <c r="B5582" t="n">
-        <v>0.3943691335825831</v>
+        <v>0.2907355522029619</v>
       </c>
       <c r="C5582" t="n">
-        <v>0.4513960347727325</v>
+        <v>0.3372055789895009</v>
       </c>
     </row>
     <row r="5583">
       <c r="A5583" t="n">
-        <v>0.1796164039052063</v>
+        <v>0.4297763988539589</v>
       </c>
       <c r="B5583" t="n">
-        <v>0.4115575864981652</v>
+        <v>0.2866597915929136</v>
       </c>
       <c r="C5583" t="n">
-        <v>0.4088260095966286</v>
+        <v>0.2835638095531275</v>
       </c>
     </row>
     <row r="5584">
       <c r="A5584" t="n">
-        <v>0.3330714474203602</v>
+        <v>0.745237671463747</v>
       </c>
       <c r="B5584" t="n">
-        <v>0.4159166297736477</v>
+        <v>0.1597822597542771</v>
       </c>
       <c r="C5584" t="n">
-        <v>0.2510119228059921</v>
+        <v>0.09498006878197598</v>
       </c>
     </row>
     <row r="5585">
       <c r="A5585" t="n">
-        <v>0.2007680873995122</v>
+        <v>0.4875322564548552</v>
       </c>
       <c r="B5585" t="n">
-        <v>0.4339611092684146</v>
+        <v>0.2804493805334968</v>
       </c>
       <c r="C5585" t="n">
-        <v>0.3652708033320733</v>
+        <v>0.2320183630116479</v>
       </c>
     </row>
     <row r="5586">
       <c r="A5586" t="n">
-        <v>0.2636597518405216</v>
+        <v>0.631248485789131</v>
       </c>
       <c r="B5586" t="n">
-        <v>0.4663039902282941</v>
+        <v>0.2360096379521812</v>
       </c>
       <c r="C5586" t="n">
-        <v>0.2700362579311843</v>
+        <v>0.1327418762586877</v>
       </c>
     </row>
     <row r="5587">
       <c r="A5587" t="n">
-        <v>0.1203971523777638</v>
+        <v>0.1357141980551811</v>
       </c>
       <c r="B5587" t="n">
-        <v>0.266712908909697</v>
+        <v>0.2005512314793184</v>
       </c>
       <c r="C5587" t="n">
-        <v>0.6128899387125393</v>
+        <v>0.6637345704655004</v>
       </c>
     </row>
     <row r="5588">
       <c r="A5588" t="n">
-        <v>0.4953865371899738</v>
+        <v>0.866383678660694</v>
       </c>
       <c r="B5588" t="n">
-        <v>0.3556907194679137</v>
+        <v>0.09448363025839565</v>
       </c>
       <c r="C5588" t="n">
-        <v>0.1489227433421125</v>
+        <v>0.0391326910809103</v>
       </c>
     </row>
     <row r="5589">
       <c r="A5589" t="n">
-        <v>0.164101376887505</v>
+        <v>0.3823311145680724</v>
       </c>
       <c r="B5589" t="n">
-        <v>0.3851823985276159</v>
+        <v>0.2820720747400456</v>
       </c>
       <c r="C5589" t="n">
-        <v>0.4507162245848791</v>
+        <v>0.335596810691882</v>
       </c>
     </row>
     <row r="5590">
       <c r="A5590" t="n">
-        <v>0.1227737699645944</v>
+        <v>0.166560187267638</v>
       </c>
       <c r="B5590" t="n">
-        <v>0.3109555867152045</v>
+        <v>0.2573707303480785</v>
       </c>
       <c r="C5590" t="n">
-        <v>0.5662706433202011</v>
+        <v>0.5760690823842834</v>
       </c>
     </row>
     <row r="5591">
       <c r="A5591" t="n">
-        <v>0.1228414544045217</v>
+        <v>0.1592533011332006</v>
       </c>
       <c r="B5591" t="n">
-        <v>0.2856554334336278</v>
+        <v>0.2279088893043238</v>
       </c>
       <c r="C5591" t="n">
-        <v>0.5915031121618506</v>
+        <v>0.6128378095624756</v>
       </c>
     </row>
     <row r="5592">
       <c r="A5592" t="n">
-        <v>0.1256496735991595</v>
+        <v>0.1772995166288222</v>
       </c>
       <c r="B5592" t="n">
-        <v>0.2888427654747703</v>
+        <v>0.2313993290404236</v>
       </c>
       <c r="C5592" t="n">
-        <v>0.5855075609260701</v>
+        <v>0.5913011543307544</v>
       </c>
     </row>
     <row r="5593">
       <c r="A5593" t="n">
-        <v>0.1686943118508515</v>
+        <v>0.399340271760561</v>
       </c>
       <c r="B5593" t="n">
-        <v>0.3892273591517703</v>
+        <v>0.2794995319292213</v>
       </c>
       <c r="C5593" t="n">
-        <v>0.4420783289973783</v>
+        <v>0.3211601963102176</v>
       </c>
     </row>
     <row r="5594">
       <c r="A5594" t="n">
-        <v>0.405316882766667</v>
+        <v>0.8120865234520181</v>
       </c>
       <c r="B5594" t="n">
-        <v>0.4161469931946341</v>
+        <v>0.1321266631977997</v>
       </c>
       <c r="C5594" t="n">
-        <v>0.178536124038699</v>
+        <v>0.05578681335018211</v>
       </c>
     </row>
     <row r="5595">
       <c r="A5595" t="n">
-        <v>0.1429541603674761</v>
+        <v>0.2999351397062886</v>
       </c>
       <c r="B5595" t="n">
-        <v>0.3857028233958542</v>
+        <v>0.3094186194719215</v>
       </c>
       <c r="C5595" t="n">
-        <v>0.4713430162366698</v>
+        <v>0.3906462408217899</v>
       </c>
     </row>
     <row r="5596">
       <c r="A5596" t="n">
-        <v>0.4683104778839047</v>
+        <v>0.8545072978753119</v>
       </c>
       <c r="B5596" t="n">
-        <v>0.367436192131515</v>
+        <v>0.1008907514545803</v>
       </c>
       <c r="C5596" t="n">
-        <v>0.1642533299845802</v>
+        <v>0.04460195067010791</v>
       </c>
     </row>
     <row r="5597">
       <c r="A5597" t="n">
-        <v>0.133882423936001</v>
+        <v>0.2381547198362817</v>
       </c>
       <c r="B5597" t="n">
-        <v>0.3197909106477366</v>
+        <v>0.259212385818215</v>
       </c>
       <c r="C5597" t="n">
-        <v>0.5463266654162624</v>
+        <v>0.5026328943455032</v>
       </c>
     </row>
     <row r="5598">
       <c r="A5598" t="n">
-        <v>0.1503005124068855</v>
+        <v>0.3218540460089089</v>
       </c>
       <c r="B5598" t="n">
-        <v>0.3447642950856852</v>
+        <v>0.2655184690934849</v>
       </c>
       <c r="C5598" t="n">
-        <v>0.5049351925074294</v>
+        <v>0.4126274848976062</v>
       </c>
     </row>
     <row r="5599">
       <c r="A5599" t="n">
-        <v>0.1302248102119945</v>
+        <v>0.2287711563391645</v>
       </c>
       <c r="B5599" t="n">
-        <v>0.3281262978546239</v>
+        <v>0.2700354864078175</v>
       </c>
       <c r="C5599" t="n">
-        <v>0.5416488919333817</v>
+        <v>0.5011933572530178</v>
       </c>
     </row>
     <row r="5600">
       <c r="A5600" t="n">
-        <v>0.1901203196054265</v>
+        <v>0.4741712407160388</v>
       </c>
       <c r="B5600" t="n">
-        <v>0.4068781578506765</v>
+        <v>0.2648308398124917</v>
       </c>
       <c r="C5600" t="n">
-        <v>0.403001522543897</v>
+        <v>0.2609979194714696</v>
       </c>
     </row>
     <row r="5601">
       <c r="A5601" t="n">
-        <v>0.2182631124273804</v>
+        <v>0.551386120525601</v>
       </c>
       <c r="B5601" t="n">
-        <v>0.4645953304959592</v>
+        <v>0.2696522333013312</v>
       </c>
       <c r="C5601" t="n">
-        <v>0.3171415570766604</v>
+        <v>0.1789616461730679</v>
       </c>
     </row>
     <row r="5602">
       <c r="A5602" t="n">
-        <v>0.1881210444341051</v>
+        <v>0.4573216334000815</v>
       </c>
       <c r="B5602" t="n">
-        <v>0.4332432788559784</v>
+        <v>0.292074848861793</v>
       </c>
       <c r="C5602" t="n">
-        <v>0.3786356767099166</v>
+        <v>0.2506035177381254</v>
       </c>
     </row>
     <row r="5603">
       <c r="A5603" t="n">
-        <v>0.125444555896061</v>
+        <v>0.1994999238079224</v>
       </c>
       <c r="B5603" t="n">
-        <v>0.3063460036654074</v>
+        <v>0.2485375718898525</v>
       </c>
       <c r="C5603" t="n">
-        <v>0.5682094404385315</v>
+        <v>0.551962504302225</v>
       </c>
     </row>
     <row r="5604">
       <c r="A5604" t="n">
-        <v>0.1509330348765659</v>
+        <v>0.3351203221347467</v>
       </c>
       <c r="B5604" t="n">
-        <v>0.3745520696438405</v>
+        <v>0.2880331617750066</v>
       </c>
       <c r="C5604" t="n">
-        <v>0.4745148954795936</v>
+        <v>0.3768465160902466</v>
       </c>
     </row>
     <row r="5605">
       <c r="A5605" t="n">
-        <v>0.1092791543224789</v>
+        <v>0.05090757560212869</v>
       </c>
       <c r="B5605" t="n">
-        <v>0.2415561672341998</v>
+        <v>0.1244042239160261</v>
       </c>
       <c r="C5605" t="n">
-        <v>0.6491646784433213</v>
+        <v>0.8246882004818452</v>
       </c>
     </row>
     <row r="5606">
       <c r="A5606" t="n">
-        <v>0.181155259802466</v>
+        <v>0.4537049938818513</v>
       </c>
       <c r="B5606" t="n">
-        <v>0.4259815029788583</v>
+        <v>0.2859825333090758</v>
       </c>
       <c r="C5606" t="n">
-        <v>0.3928632372186757</v>
+        <v>0.260312472809073</v>
       </c>
     </row>
     <row r="5607">
       <c r="A5607" t="n">
-        <v>0.1625529793511938</v>
+        <v>0.3863167403707166</v>
       </c>
       <c r="B5607" t="n">
-        <v>0.3849680735647937</v>
+        <v>0.2799342285736325</v>
       </c>
       <c r="C5607" t="n">
-        <v>0.4524789470840124</v>
+        <v>0.3337490310556509</v>
       </c>
     </row>
     <row r="5608">
       <c r="A5608" t="n">
-        <v>0.2344844413779871</v>
+        <v>0.5969429720390577</v>
       </c>
       <c r="B5608" t="n">
-        <v>0.4673699114349049</v>
+        <v>0.2486834651357897</v>
       </c>
       <c r="C5608" t="n">
-        <v>0.298145647187108</v>
+        <v>0.1543735628251526</v>
       </c>
     </row>
     <row r="5609">
       <c r="A5609" t="n">
-        <v>0.3909582976207729</v>
+        <v>0.8047224074456177</v>
       </c>
       <c r="B5609" t="n">
-        <v>0.4202645814934624</v>
+        <v>0.1354091137909429</v>
       </c>
       <c r="C5609" t="n">
-        <v>0.1887771208857646</v>
+        <v>0.05986847876343939</v>
       </c>
     </row>
     <row r="5610">
       <c r="A5610" t="n">
-        <v>0.2421299524066063</v>
+        <v>0.613467231670451</v>
       </c>
       <c r="B5610" t="n">
-        <v>0.4513002845949678</v>
+        <v>0.2321426964146209</v>
       </c>
       <c r="C5610" t="n">
-        <v>0.3065697629984259</v>
+        <v>0.154390071914928</v>
       </c>
     </row>
     <row r="5611">
       <c r="A5611" t="n">
-        <v>0.269763972484084</v>
+        <v>0.6579605682146354</v>
       </c>
       <c r="B5611" t="n">
-        <v>0.4258117808156436</v>
+        <v>0.2007259829369179</v>
       </c>
       <c r="C5611" t="n">
-        <v>0.3044242467002724</v>
+        <v>0.1413134488484467</v>
       </c>
     </row>
     <row r="5612">
       <c r="A5612" t="n">
-        <v>0.1212364402521429</v>
+        <v>0.1668748761998135</v>
       </c>
       <c r="B5612" t="n">
-        <v>0.277659746609407</v>
+        <v>0.2213685521959921</v>
       </c>
       <c r="C5612" t="n">
-        <v>0.6011038131384501</v>
+        <v>0.6117565716041944</v>
       </c>
     </row>
     <row r="5613">
       <c r="A5613" t="n">
-        <v>0.2643945534674305</v>
+        <v>0.6563233933527863</v>
       </c>
       <c r="B5613" t="n">
-        <v>0.4227193155732959</v>
+        <v>0.1987075652978436</v>
       </c>
       <c r="C5613" t="n">
-        <v>0.3128861309592736</v>
+        <v>0.1449690413493701</v>
       </c>
     </row>
     <row r="5614">
       <c r="A5614" t="n">
-        <v>0.1521857018008426</v>
+        <v>0.3407315429312627</v>
       </c>
       <c r="B5614" t="n">
-        <v>0.3616394482509803</v>
+        <v>0.2745276469412929</v>
       </c>
       <c r="C5614" t="n">
-        <v>0.4861748499481771</v>
+        <v>0.3847408101274444</v>
       </c>
     </row>
     <row r="5615">
       <c r="A5615" t="n">
-        <v>0.2199681645326524</v>
+        <v>0.5480148050524397</v>
       </c>
       <c r="B5615" t="n">
-        <v>0.4132167918648201</v>
+        <v>0.2406252116987012</v>
       </c>
       <c r="C5615" t="n">
-        <v>0.3668150436025275</v>
+        <v>0.2113599832488591</v>
       </c>
     </row>
     <row r="5616">
       <c r="A5616" t="n">
-        <v>0.1148949869131136</v>
+        <v>0.1252832214011908</v>
       </c>
       <c r="B5616" t="n">
-        <v>0.2814682026483133</v>
+        <v>0.2167658288483642</v>
       </c>
       <c r="C5616" t="n">
-        <v>0.6036368104385731</v>
+        <v>0.657950949750445</v>
       </c>
     </row>
     <row r="5617">
       <c r="A5617" t="n">
-        <v>0.5181393634820376</v>
+        <v>0.8829115272353443</v>
       </c>
       <c r="B5617" t="n">
-        <v>0.3455004636884236</v>
+        <v>0.08419086480406911</v>
       </c>
       <c r="C5617" t="n">
-        <v>0.1363601728295389</v>
+        <v>0.03289760796058653</v>
       </c>
     </row>
     <row r="5618">
       <c r="A5618" t="n">
-        <v>0.1597277959290001</v>
+        <v>0.373537681433731</v>
       </c>
       <c r="B5618" t="n">
-        <v>0.3984939304278111</v>
+        <v>0.2955902775018963</v>
       </c>
       <c r="C5618" t="n">
-        <v>0.4417782736431887</v>
+        <v>0.3308720410643728</v>
       </c>
     </row>
     <row r="5619">
       <c r="A5619" t="n">
-        <v>0.1312522277266082</v>
+        <v>0.2206298131204613</v>
       </c>
       <c r="B5619" t="n">
-        <v>0.3167437223309898</v>
+        <v>0.2580080248840704</v>
       </c>
       <c r="C5619" t="n">
-        <v>0.5520040499424019</v>
+        <v>0.5213621619954684</v>
       </c>
     </row>
     <row r="5620">
       <c r="A5620" t="n">
-        <v>0.2045090734779408</v>
+        <v>0.5240991967222698</v>
       </c>
       <c r="B5620" t="n">
-        <v>0.4527401648329956</v>
+        <v>0.2736907430898431</v>
       </c>
       <c r="C5620" t="n">
-        <v>0.3427507616890637</v>
+        <v>0.2022100601878869</v>
       </c>
     </row>
     <row r="5621">
       <c r="A5621" t="n">
-        <v>0.1597255498109356</v>
+        <v>0.3737275257181221</v>
       </c>
       <c r="B5621" t="n">
-        <v>0.4217301624408623</v>
+        <v>0.3151673911115828</v>
       </c>
       <c r="C5621" t="n">
-        <v>0.4185442877482023</v>
+        <v>0.3111050831702949</v>
       </c>
     </row>
     <row r="5622">
       <c r="A5622" t="n">
-        <v>0.1764212887265453</v>
+        <v>0.4277711055044663</v>
       </c>
       <c r="B5622" t="n">
-        <v>0.4002643758921188</v>
+        <v>0.2780409207660229</v>
       </c>
       <c r="C5622" t="n">
-        <v>0.4233143353813358</v>
+        <v>0.2941879737295107</v>
       </c>
     </row>
     <row r="5623">
       <c r="A5623" t="n">
-        <v>0.1671771657967289</v>
+        <v>0.3621119573613116</v>
       </c>
       <c r="B5623" t="n">
-        <v>0.3880152165076756</v>
+        <v>0.2946651500359987</v>
       </c>
       <c r="C5623" t="n">
-        <v>0.4448076176955954</v>
+        <v>0.3432228926026896</v>
       </c>
     </row>
     <row r="5624">
       <c r="A5624" t="n">
-        <v>0.1932176059406612</v>
+        <v>0.4533561387097186</v>
       </c>
       <c r="B5624" t="n">
-        <v>0.4579172722220338</v>
+        <v>0.3143170619113058</v>
       </c>
       <c r="C5624" t="n">
-        <v>0.3488651218373049</v>
+        <v>0.2323267993789756</v>
       </c>
     </row>
     <row r="5625">
       <c r="A5625" t="n">
-        <v>0.1613182470066175</v>
+        <v>0.3288840174613366</v>
       </c>
       <c r="B5625" t="n">
-        <v>0.3823220644469588</v>
+        <v>0.3019347529825109</v>
       </c>
       <c r="C5625" t="n">
-        <v>0.4563596885464237</v>
+        <v>0.3691812295561525</v>
       </c>
     </row>
     <row r="5626">
       <c r="A5626" t="n">
-        <v>0.1923449759465115</v>
+        <v>0.4408021838178569</v>
       </c>
       <c r="B5626" t="n">
-        <v>0.4050608421245572</v>
+        <v>0.2811533617739564</v>
       </c>
       <c r="C5626" t="n">
-        <v>0.4025941819289313</v>
+        <v>0.2780444544081866</v>
       </c>
     </row>
     <row r="5627">
       <c r="A5627" t="n">
-        <v>0.2850885418630664</v>
+        <v>0.660613487811572</v>
       </c>
       <c r="B5627" t="n">
-        <v>0.4518613007716306</v>
+        <v>0.2164163856854664</v>
       </c>
       <c r="C5627" t="n">
-        <v>0.263050157365303</v>
+        <v>0.1229701265029616</v>
       </c>
     </row>
     <row r="5628">
       <c r="A5628" t="n">
-        <v>0.3853528678072118</v>
+        <v>0.7821373387046759</v>
       </c>
       <c r="B5628" t="n">
-        <v>0.4127557384068358</v>
+        <v>0.1470992242517968</v>
       </c>
       <c r="C5628" t="n">
-        <v>0.2018913937859523</v>
+        <v>0.07076343704352714</v>
       </c>
     </row>
     <row r="5629">
       <c r="A5629" t="n">
-        <v>0.1920732515564946</v>
+        <v>0.4514630982370323</v>
       </c>
       <c r="B5629" t="n">
-        <v>0.3970870315017531</v>
+        <v>0.2693196374277819</v>
       </c>
       <c r="C5629" t="n">
-        <v>0.4108397169417525</v>
+        <v>0.2792172643351858</v>
       </c>
     </row>
     <row r="5630">
       <c r="A5630" t="n">
-        <v>0.1371737796743467</v>
+        <v>0.1978031942920698</v>
       </c>
       <c r="B5630" t="n">
-        <v>0.2781738238025787</v>
+        <v>0.223043308906825</v>
       </c>
       <c r="C5630" t="n">
-        <v>0.5846523965230748</v>
+        <v>0.5791534968011053</v>
       </c>
     </row>
     <row r="5631">
       <c r="A5631" t="n">
-        <v>0.1751154163217486</v>
+        <v>0.3816136779265832</v>
       </c>
       <c r="B5631" t="n">
-        <v>0.3691483030069647</v>
+        <v>0.2732252939786264</v>
       </c>
       <c r="C5631" t="n">
-        <v>0.4557362806712866</v>
+        <v>0.3451610280947903</v>
       </c>
     </row>
     <row r="5632">
       <c r="A5632" t="n">
-        <v>0.1264393947296567</v>
+        <v>0.1660286927034564</v>
       </c>
       <c r="B5632" t="n">
-        <v>0.294360221392317</v>
+        <v>0.2385934411858998</v>
       </c>
       <c r="C5632" t="n">
-        <v>0.5792003838780262</v>
+        <v>0.5953778661106438</v>
       </c>
     </row>
     <row r="5633">
       <c r="A5633" t="n">
-        <v>0.1939600481602011</v>
+        <v>0.4765496805482973</v>
       </c>
       <c r="B5633" t="n">
-        <v>0.40803266218756</v>
+        <v>0.2657005815580056</v>
       </c>
       <c r="C5633" t="n">
-        <v>0.398007289652239</v>
+        <v>0.2577497378936972</v>
       </c>
     </row>
     <row r="5634">
       <c r="A5634" t="n">
-        <v>0.1665375793356197</v>
+        <v>0.3912167534573986</v>
       </c>
       <c r="B5634" t="n">
-        <v>0.3849123071832722</v>
+        <v>0.278819859055104</v>
       </c>
       <c r="C5634" t="n">
-        <v>0.448550113481108</v>
+        <v>0.3299633874874974</v>
       </c>
     </row>
     <row r="5635">
       <c r="A5635" t="n">
-        <v>0.223657614381688</v>
+        <v>0.5570736250768202</v>
       </c>
       <c r="B5635" t="n">
-        <v>0.4371037902077679</v>
+        <v>0.2513861397757453</v>
       </c>
       <c r="C5635" t="n">
-        <v>0.3392385954105441</v>
+        <v>0.1915402351474345</v>
       </c>
     </row>
     <row r="5636">
       <c r="A5636" t="n">
-        <v>0.1122728128096662</v>
+        <v>0.08561840449682977</v>
       </c>
       <c r="B5636" t="n">
-        <v>0.2637198624647447</v>
+        <v>0.1810838646032918</v>
       </c>
       <c r="C5636" t="n">
-        <v>0.6240073247255893</v>
+        <v>0.7332977308998784</v>
       </c>
     </row>
     <row r="5637">
       <c r="A5637" t="n">
-        <v>0.53970906748576</v>
+        <v>0.8885205446165546</v>
       </c>
       <c r="B5637" t="n">
-        <v>0.3253181282594481</v>
+        <v>0.07899590859101216</v>
       </c>
       <c r="C5637" t="n">
-        <v>0.1349728042547918</v>
+        <v>0.03248354679243318</v>
       </c>
     </row>
     <row r="5638">
       <c r="A5638" t="n">
-        <v>0.1834279999582063</v>
+        <v>0.4411937099124144</v>
       </c>
       <c r="B5638" t="n">
-        <v>0.43755666625588</v>
+        <v>0.3021117679567263</v>
       </c>
       <c r="C5638" t="n">
-        <v>0.3790153337859137</v>
+        <v>0.2566945221308592</v>
       </c>
     </row>
     <row r="5639">
       <c r="A5639" t="n">
-        <v>0.1385684448694668</v>
+        <v>0.239458150984005</v>
       </c>
       <c r="B5639" t="n">
-        <v>0.3117407786930961</v>
+        <v>0.2528485587279773</v>
       </c>
       <c r="C5639" t="n">
-        <v>0.5496907764374372</v>
+        <v>0.5076932902880176</v>
       </c>
     </row>
     <row r="5640">
       <c r="A5640" t="n">
-        <v>0.2229758680008035</v>
+        <v>0.55485247232248</v>
       </c>
       <c r="B5640" t="n">
-        <v>0.4529694406176625</v>
+        <v>0.262188571805584</v>
       </c>
       <c r="C5640" t="n">
-        <v>0.324054691381534</v>
+        <v>0.1829589558719359</v>
       </c>
     </row>
     <row r="5641">
       <c r="A5641" t="n">
-        <v>0.209133710096302</v>
+        <v>0.5191969508470007</v>
       </c>
       <c r="B5641" t="n">
-        <v>0.4401212211619819</v>
+        <v>0.270021196658991</v>
       </c>
       <c r="C5641" t="n">
-        <v>0.3507450687417161</v>
+        <v>0.2107818524940083</v>
       </c>
     </row>
     <row r="5642">
       <c r="A5642" t="n">
-        <v>0.2569052144559449</v>
+        <v>0.6281827975316688</v>
       </c>
       <c r="B5642" t="n">
-        <v>0.4298151779443786</v>
+        <v>0.2166310323569016</v>
       </c>
       <c r="C5642" t="n">
-        <v>0.3132796075996764</v>
+        <v>0.1551861701114296</v>
       </c>
     </row>
     <row r="5643">
       <c r="A5643" t="n">
-        <v>0.1474512250771384</v>
+        <v>0.3012152946650214</v>
       </c>
       <c r="B5643" t="n">
-        <v>0.3816109795228613</v>
+        <v>0.307306929149998</v>
       </c>
       <c r="C5643" t="n">
-        <v>0.4709377954000004</v>
+        <v>0.3914777761849805</v>
       </c>
     </row>
     <row r="5644">
       <c r="A5644" t="n">
-        <v>0.1573399317990452</v>
+        <v>0.3405979574162008</v>
       </c>
       <c r="B5644" t="n">
-        <v>0.3446434043948807</v>
+        <v>0.2610994725474983</v>
       </c>
       <c r="C5644" t="n">
-        <v>0.4980166638060741</v>
+        <v>0.3983025700363009</v>
       </c>
     </row>
     <row r="5645">
       <c r="A5645" t="n">
-        <v>0.1884072016198693</v>
+        <v>0.4574720824395035</v>
       </c>
       <c r="B5645" t="n">
-        <v>0.417346254222238</v>
+        <v>0.2804647246336134</v>
       </c>
       <c r="C5645" t="n">
-        <v>0.3942465441578926</v>
+        <v>0.262063192926883</v>
       </c>
     </row>
     <row r="5646">
       <c r="A5646" t="n">
-        <v>0.5038632337024979</v>
+        <v>0.8707416329739797</v>
       </c>
       <c r="B5646" t="n">
-        <v>0.3514207863750974</v>
+        <v>0.09183927818354259</v>
       </c>
       <c r="C5646" t="n">
-        <v>0.1447159799224048</v>
+        <v>0.03741908884247788</v>
       </c>
     </row>
     <row r="5647">
       <c r="A5647" t="n">
-        <v>0.1872739660085449</v>
+        <v>0.4543548994374793</v>
       </c>
       <c r="B5647" t="n">
-        <v>0.433696076461596</v>
+        <v>0.2935335405087974</v>
       </c>
       <c r="C5647" t="n">
-        <v>0.3790299575298592</v>
+        <v>0.2521115600537233</v>
       </c>
     </row>
     <row r="5648">
       <c r="A5648" t="n">
-        <v>0.2205555886915947</v>
+        <v>0.5489685894903361</v>
       </c>
       <c r="B5648" t="n">
-        <v>0.4518177593585096</v>
+        <v>0.2640767129891841</v>
       </c>
       <c r="C5648" t="n">
-        <v>0.3276266519498957</v>
+        <v>0.1869546975204799</v>
       </c>
     </row>
     <row r="5649">
       <c r="A5649" t="n">
-        <v>0.1133133098261561</v>
+        <v>0.09395422658655982</v>
       </c>
       <c r="B5649" t="n">
-        <v>0.2741352228873633</v>
+        <v>0.1977577143363561</v>
       </c>
       <c r="C5649" t="n">
-        <v>0.6125514672864806</v>
+        <v>0.708288059077084</v>
       </c>
     </row>
     <row r="5650">
       <c r="A5650" t="n">
-        <v>0.1318476161091146</v>
+        <v>0.2143170619325746</v>
       </c>
       <c r="B5650" t="n">
-        <v>0.2953732013419978</v>
+        <v>0.2384343570305107</v>
       </c>
       <c r="C5650" t="n">
-        <v>0.5727791825488875</v>
+        <v>0.5472485810369146</v>
       </c>
     </row>
     <row r="5651">
       <c r="A5651" t="n">
-        <v>0.2249042356385522</v>
+        <v>0.559805982782008</v>
       </c>
       <c r="B5651" t="n">
-        <v>0.4374948738347362</v>
+        <v>0.250528956735053</v>
       </c>
       <c r="C5651" t="n">
-        <v>0.3376008905267116</v>
+        <v>0.189665060482939</v>
       </c>
     </row>
     <row r="5652">
       <c r="A5652" t="n">
-        <v>0.1319245236626535</v>
+        <v>0.2119583082030259</v>
       </c>
       <c r="B5652" t="n">
-        <v>0.2937951048438234</v>
+        <v>0.2361426302473809</v>
       </c>
       <c r="C5652" t="n">
-        <v>0.5742803714935231</v>
+        <v>0.5518990615495931</v>
       </c>
     </row>
     <row r="5653">
       <c r="A5653" t="n">
-        <v>0.1436512976227658</v>
+        <v>0.2644233896026063</v>
       </c>
       <c r="B5653" t="n">
-        <v>0.3213338821538863</v>
+        <v>0.2585263470155723</v>
       </c>
       <c r="C5653" t="n">
-        <v>0.5350148202233479</v>
+        <v>0.4770502633818215</v>
       </c>
     </row>
     <row r="5654">
       <c r="A5654" t="n">
-        <v>0.1419878284735639</v>
+        <v>0.2713136064773054</v>
       </c>
       <c r="B5654" t="n">
-        <v>0.337448637221627</v>
+        <v>0.2710593294328094</v>
       </c>
       <c r="C5654" t="n">
-        <v>0.5205635343048092</v>
+        <v>0.4576270640898853</v>
       </c>
     </row>
     <row r="5655">
       <c r="A5655" t="n">
-        <v>0.1400908392279748</v>
+        <v>0.2627522204144366</v>
       </c>
       <c r="B5655" t="n">
-        <v>0.3546566144873475</v>
+        <v>0.2915795903441534</v>
       </c>
       <c r="C5655" t="n">
-        <v>0.5052525462846778</v>
+        <v>0.4456681892414099</v>
       </c>
     </row>
     <row r="5656">
       <c r="A5656" t="n">
-        <v>0.2430661287323181</v>
+        <v>0.5986276156696767</v>
       </c>
       <c r="B5656" t="n">
-        <v>0.4586225966741959</v>
+        <v>0.2458513075809279</v>
       </c>
       <c r="C5656" t="n">
-        <v>0.2983112745934859</v>
+        <v>0.1555210767493953</v>
       </c>
     </row>
     <row r="5657">
       <c r="A5657" t="n">
-        <v>0.1599622534768356</v>
+        <v>0.3552369091049365</v>
       </c>
       <c r="B5657" t="n">
-        <v>0.3924899254237146</v>
+        <v>0.2990984338318767</v>
       </c>
       <c r="C5657" t="n">
-        <v>0.4475478210994498</v>
+        <v>0.3456646570631868</v>
       </c>
     </row>
     <row r="5658">
       <c r="A5658" t="n">
-        <v>0.2200243690756482</v>
+        <v>0.5477183386157449</v>
       </c>
       <c r="B5658" t="n">
-        <v>0.4472324555175168</v>
+        <v>0.2618336648158563</v>
       </c>
       <c r="C5658" t="n">
-        <v>0.3327431754068351</v>
+        <v>0.1904479965683986</v>
       </c>
     </row>
     <row r="5659">
       <c r="A5659" t="n">
-        <v>0.1516813228838674</v>
+        <v>0.3164657028102755</v>
       </c>
       <c r="B5659" t="n">
-        <v>0.3657508505528732</v>
+        <v>0.2883844988719759</v>
       </c>
       <c r="C5659" t="n">
-        <v>0.4825678265632594</v>
+        <v>0.3951497983177484</v>
       </c>
     </row>
     <row r="5660">
       <c r="A5660" t="n">
-        <v>0.3516724366744901</v>
+        <v>0.7595392116852606</v>
       </c>
       <c r="B5660" t="n">
-        <v>0.4184654275169187</v>
+        <v>0.1560921793390449</v>
       </c>
       <c r="C5660" t="n">
-        <v>0.2298621358085912</v>
+        <v>0.08436860897569456</v>
       </c>
     </row>
     <row r="5661">
       <c r="A5661" t="n">
-        <v>0.5050918173100506</v>
+        <v>0.8682418001332635</v>
       </c>
       <c r="B5661" t="n">
-        <v>0.3524422046309223</v>
+        <v>0.09413137536850945</v>
       </c>
       <c r="C5661" t="n">
-        <v>0.1424659780590271</v>
+        <v>0.03762682449822707</v>
       </c>
     </row>
     <row r="5662">
       <c r="A5662" t="n">
-        <v>0.1831420627653326</v>
+        <v>0.4209284933920258</v>
       </c>
       <c r="B5662" t="n">
-        <v>0.3994585430403506</v>
+        <v>0.2833013830525742</v>
       </c>
       <c r="C5662" t="n">
-        <v>0.4173993941943167</v>
+        <v>0.2957701235553999</v>
       </c>
     </row>
     <row r="5663">
       <c r="A5663" t="n">
-        <v>0.1673264726233831</v>
+        <v>0.3735818496838964</v>
       </c>
       <c r="B5663" t="n">
-        <v>0.4092367525595642</v>
+        <v>0.3078774967373662</v>
       </c>
       <c r="C5663" t="n">
-        <v>0.4234367748170528</v>
+        <v>0.3185406535787374</v>
       </c>
     </row>
     <row r="5664">
       <c r="A5664" t="n">
-        <v>0.1309345843229021</v>
+        <v>0.2162045675075166</v>
       </c>
       <c r="B5664" t="n">
-        <v>0.3188850941488518</v>
+        <v>0.2616594471284898</v>
       </c>
       <c r="C5664" t="n">
-        <v>0.5501803215282461</v>
+        <v>0.5221359853639935</v>
       </c>
     </row>
     <row r="5665">
       <c r="A5665" t="n">
-        <v>0.1448671098597265</v>
+        <v>0.2859964270342167</v>
       </c>
       <c r="B5665" t="n">
-        <v>0.3672740565895415</v>
+        <v>0.2974480293487285</v>
       </c>
       <c r="C5665" t="n">
-        <v>0.487858833550732</v>
+        <v>0.4165555436170547</v>
       </c>
     </row>
     <row r="5666">
       <c r="A5666" t="n">
-        <v>0.2639031653512498</v>
+        <v>0.6396601147376321</v>
       </c>
       <c r="B5666" t="n">
-        <v>0.4541566909208596</v>
+        <v>0.2242899666166435</v>
       </c>
       <c r="C5666" t="n">
-        <v>0.2819401437278906</v>
+        <v>0.1360499186457244</v>
       </c>
     </row>
     <row r="5667">
       <c r="A5667" t="n">
-        <v>0.1572126269902466</v>
+        <v>0.3422619777468898</v>
       </c>
       <c r="B5667" t="n">
-        <v>0.374052930017106</v>
+        <v>0.2871736117309969</v>
       </c>
       <c r="C5667" t="n">
-        <v>0.4687344429926474</v>
+        <v>0.3705644105221133</v>
       </c>
     </row>
     <row r="5668">
       <c r="A5668" t="n">
-        <v>0.1687774014158545</v>
+        <v>0.389575172885292</v>
       </c>
       <c r="B5668" t="n">
-        <v>0.3985923163522392</v>
+        <v>0.2919353114648247</v>
       </c>
       <c r="C5668" t="n">
-        <v>0.4326302822319064</v>
+        <v>0.3184895156498831</v>
       </c>
     </row>
     <row r="5669">
       <c r="A5669" t="n">
-        <v>0.237688066443558</v>
+        <v>0.5889005522821862</v>
       </c>
       <c r="B5669" t="n">
-        <v>0.4281788416227018</v>
+        <v>0.2325730441983996</v>
       </c>
       <c r="C5669" t="n">
-        <v>0.3341330919337402</v>
+        <v>0.1785264035194143</v>
       </c>
     </row>
     <row r="5670">
       <c r="A5670" t="n">
-        <v>0.2875920617686603</v>
+        <v>0.6792254745265063</v>
       </c>
       <c r="B5670" t="n">
-        <v>0.4296789846726756</v>
+        <v>0.1948166089727188</v>
       </c>
       <c r="C5670" t="n">
-        <v>0.282728953558664</v>
+        <v>0.1259579165007751</v>
       </c>
     </row>
     <row r="5671">
       <c r="A5671" t="n">
-        <v>0.4981862724285571</v>
+        <v>0.8677114651438353</v>
       </c>
       <c r="B5671" t="n">
-        <v>0.3502124811374053</v>
+        <v>0.09261151214515935</v>
       </c>
       <c r="C5671" t="n">
-        <v>0.1516012464340376</v>
+        <v>0.03967702271100545</v>
       </c>
     </row>
     <row r="5672">
       <c r="A5672" t="n">
-        <v>0.2944001483820083</v>
+        <v>0.6894500756102995</v>
       </c>
       <c r="B5672" t="n">
-        <v>0.4247054084590215</v>
+        <v>0.1881951672187071</v>
       </c>
       <c r="C5672" t="n">
-        <v>0.2808944431589703</v>
+        <v>0.1223547571709934</v>
       </c>
     </row>
     <row r="5673">
       <c r="A5673" t="n">
-        <v>0.1565445472325161</v>
+        <v>0.338391619030299</v>
       </c>
       <c r="B5673" t="n">
-        <v>0.385211403725727</v>
+        <v>0.2986218823607588</v>
       </c>
       <c r="C5673" t="n">
-        <v>0.458244049041757</v>
+        <v>0.3629864986089423</v>
       </c>
     </row>
     <row r="5674">
       <c r="A5674" t="n">
-        <v>0.2879129078881749</v>
+        <v>0.679635373036146</v>
       </c>
       <c r="B5674" t="n">
-        <v>0.4458191880386324</v>
+        <v>0.2021308842129895</v>
       </c>
       <c r="C5674" t="n">
-        <v>0.2662679040731928</v>
+        <v>0.1182337427508645</v>
       </c>
     </row>
     <row r="5675">
       <c r="A5675" t="n">
-        <v>0.1639173495615605</v>
+        <v>0.3693507541272817</v>
       </c>
       <c r="B5675" t="n">
-        <v>0.3773191820096299</v>
+        <v>0.2811368846949407</v>
       </c>
       <c r="C5675" t="n">
-        <v>0.4587634684288096</v>
+        <v>0.3495123611777777</v>
       </c>
     </row>
     <row r="5676">
       <c r="A5676" t="n">
-        <v>0.2917586429554405</v>
+        <v>0.6856170927923875</v>
       </c>
       <c r="B5676" t="n">
-        <v>0.4415857908702819</v>
+        <v>0.197499005176596</v>
       </c>
       <c r="C5676" t="n">
-        <v>0.2666555661742774</v>
+        <v>0.1168839020310164</v>
       </c>
     </row>
     <row r="5677">
       <c r="A5677" t="n">
-        <v>0.1578082668726676</v>
+        <v>0.3445715519102094</v>
       </c>
       <c r="B5677" t="n">
-        <v>0.3651981851614097</v>
+        <v>0.2783077919274768</v>
       </c>
       <c r="C5677" t="n">
-        <v>0.4769935479659227</v>
+        <v>0.3771206561623138</v>
       </c>
     </row>
     <row r="5678">
       <c r="A5678" t="n">
-        <v>0.1230673045628271</v>
+        <v>0.1590790764574372</v>
       </c>
       <c r="B5678" t="n">
-        <v>0.2838487831045852</v>
+        <v>0.2255895171603907</v>
       </c>
       <c r="C5678" t="n">
-        <v>0.5930839123325876</v>
+        <v>0.6153314063821721</v>
       </c>
     </row>
     <row r="5679">
       <c r="A5679" t="n">
-        <v>0.1150795435718289</v>
+        <v>0.08363198667798855</v>
       </c>
       <c r="B5679" t="n">
-        <v>0.2397994930925934</v>
+        <v>0.1504633916335531</v>
       </c>
       <c r="C5679" t="n">
-        <v>0.6451209633355777</v>
+        <v>0.7659046216884584</v>
       </c>
     </row>
     <row r="5680">
       <c r="A5680" t="n">
-        <v>0.141762820450661</v>
+        <v>0.2705315485568887</v>
       </c>
       <c r="B5680" t="n">
-        <v>0.319992829851092</v>
+        <v>0.2548085526114794</v>
       </c>
       <c r="C5680" t="n">
-        <v>0.538244349698247</v>
+        <v>0.4746598988316318</v>
       </c>
     </row>
     <row r="5681">
       <c r="A5681" t="n">
-        <v>0.2650772453043611</v>
+        <v>0.6415650031860732</v>
       </c>
       <c r="B5681" t="n">
-        <v>0.4752586308832195</v>
+        <v>0.2341231542610984</v>
       </c>
       <c r="C5681" t="n">
-        <v>0.2596641238124195</v>
+        <v>0.1243118425528284</v>
       </c>
     </row>
     <row r="5682">
       <c r="A5682" t="n">
-        <v>0.1559754976657507</v>
+        <v>0.3380629004788815</v>
       </c>
       <c r="B5682" t="n">
-        <v>0.3953914294553598</v>
+        <v>0.3075096346195461</v>
       </c>
       <c r="C5682" t="n">
-        <v>0.4486330728788895</v>
+        <v>0.3544274649015724</v>
       </c>
     </row>
     <row r="5683">
       <c r="A5683" t="n">
-        <v>0.1408159414273314</v>
+        <v>0.2654397391077443</v>
       </c>
       <c r="B5683" t="n">
-        <v>0.3617617088727026</v>
+        <v>0.2979397891316946</v>
       </c>
       <c r="C5683" t="n">
-        <v>0.4974223496999661</v>
+        <v>0.4366204717605613</v>
       </c>
     </row>
     <row r="5684">
       <c r="A5684" t="n">
-        <v>0.2404643123654608</v>
+        <v>0.5938641558976897</v>
       </c>
       <c r="B5684" t="n">
-        <v>0.4649561066151115</v>
+        <v>0.251270064224305</v>
       </c>
       <c r="C5684" t="n">
-        <v>0.2945795810194278</v>
+        <v>0.1548657798780053</v>
       </c>
     </row>
     <row r="5685">
       <c r="A5685" t="n">
-        <v>0.1695202462673897</v>
+        <v>0.391308459951071</v>
       </c>
       <c r="B5685" t="n">
-        <v>0.4351321829323374</v>
+        <v>0.3215638649237008</v>
       </c>
       <c r="C5685" t="n">
-        <v>0.3953475708002729</v>
+        <v>0.2871276751252281</v>
       </c>
     </row>
     <row r="5686">
       <c r="A5686" t="n">
-        <v>0.1791868264769541</v>
+        <v>0.4275593487177362</v>
       </c>
       <c r="B5686" t="n">
-        <v>0.4174275392566656</v>
+        <v>0.2921655549571198</v>
       </c>
       <c r="C5686" t="n">
-        <v>0.4033856342663803</v>
+        <v>0.280275096325144</v>
       </c>
     </row>
     <row r="5687">
       <c r="A5687" t="n">
-        <v>0.4919299601410619</v>
+        <v>0.8646233055127943</v>
       </c>
       <c r="B5687" t="n">
-        <v>0.3509184177499398</v>
+        <v>0.09380347182450127</v>
       </c>
       <c r="C5687" t="n">
-        <v>0.1571516221089983</v>
+        <v>0.04157322266270429</v>
       </c>
     </row>
     <row r="5688">
       <c r="A5688" t="n">
-        <v>0.1690594432672966</v>
+        <v>0.3899060391194</v>
       </c>
       <c r="B5688" t="n">
-        <v>0.401383269392481</v>
+        <v>0.2942126362257668</v>
       </c>
       <c r="C5688" t="n">
-        <v>0.4295572873402224</v>
+        <v>0.3158813246548331</v>
       </c>
     </row>
     <row r="5689">
       <c r="A5689" t="n">
-        <v>0.1343054129297538</v>
+        <v>0.2296394579754482</v>
       </c>
       <c r="B5689" t="n">
-        <v>0.3288974151645364</v>
+        <v>0.2717543867129718</v>
       </c>
       <c r="C5689" t="n">
-        <v>0.5367971719057099</v>
+        <v>0.49860615531158</v>
       </c>
     </row>
     <row r="5690">
       <c r="A5690" t="n">
-        <v>0.1645239902305189</v>
+        <v>0.3728768821091394</v>
       </c>
       <c r="B5690" t="n">
-        <v>0.365532951716477</v>
+        <v>0.2696962983057238</v>
       </c>
       <c r="C5690" t="n">
-        <v>0.469943058053004</v>
+        <v>0.3574268195851367</v>
       </c>
     </row>
     <row r="5691">
       <c r="A5691" t="n">
-        <v>0.4128678081816184</v>
+        <v>0.8143767701519041</v>
       </c>
       <c r="B5691" t="n">
-        <v>0.3948218144439962</v>
+        <v>0.1253842283313145</v>
       </c>
       <c r="C5691" t="n">
-        <v>0.1923103773743855</v>
+        <v>0.06023900151678135</v>
       </c>
     </row>
     <row r="5692">
       <c r="A5692" t="n">
-        <v>0.2974663747999478</v>
+        <v>0.6936930951714364</v>
       </c>
       <c r="B5692" t="n">
-        <v>0.4393247416156066</v>
+        <v>0.1929370111111207</v>
       </c>
       <c r="C5692" t="n">
-        <v>0.2632088835844457</v>
+        <v>0.1133698937174429</v>
       </c>
     </row>
     <row r="5693">
       <c r="A5693" t="n">
-        <v>0.2289816865183886</v>
+        <v>0.5682223361273318</v>
       </c>
       <c r="B5693" t="n">
-        <v>0.4536323049529589</v>
+        <v>0.2568607185513427</v>
       </c>
       <c r="C5693" t="n">
-        <v>0.3173860085286525</v>
+        <v>0.1749169453213256</v>
       </c>
     </row>
     <row r="5694">
       <c r="A5694" t="n">
-        <v>0.1549598767206531</v>
+        <v>0.3325527702965592</v>
       </c>
       <c r="B5694" t="n">
-        <v>0.3967402294053489</v>
+        <v>0.3109653855294541</v>
       </c>
       <c r="C5694" t="n">
-        <v>0.448299893873998</v>
+        <v>0.3564818441739868</v>
       </c>
     </row>
     <row r="5695">
       <c r="A5695" t="n">
-        <v>0.1136246708560105</v>
+        <v>0.09185682351871703</v>
       </c>
       <c r="B5695" t="n">
-        <v>0.2451939184489642</v>
+        <v>0.1662045145383294</v>
       </c>
       <c r="C5695" t="n">
-        <v>0.6411814106950252</v>
+        <v>0.7419386619429537</v>
       </c>
     </row>
     <row r="5696">
       <c r="A5696" t="n">
-        <v>0.2454620809672593</v>
+        <v>0.5876208080564301</v>
       </c>
       <c r="B5696" t="n">
-        <v>0.4388651474915599</v>
+        <v>0.2420192634685214</v>
       </c>
       <c r="C5696" t="n">
-        <v>0.3156727715411808</v>
+        <v>0.1703599284750485</v>
       </c>
     </row>
     <row r="5697">
       <c r="A5697" t="n">
-        <v>0.1109921798857035</v>
+        <v>0.07954653524167266</v>
       </c>
       <c r="B5697" t="n">
-        <v>0.2533462368123829</v>
+        <v>0.1676134395701892</v>
       </c>
       <c r="C5697" t="n">
-        <v>0.6356615833019136</v>
+        <v>0.7528400251881382</v>
       </c>
     </row>
     <row r="5698">
       <c r="A5698" t="n">
-        <v>0.2450628909956707</v>
+        <v>0.6033040609673642</v>
       </c>
       <c r="B5698" t="n">
-        <v>0.4666883946572217</v>
+        <v>0.2478871441592555</v>
       </c>
       <c r="C5698" t="n">
-        <v>0.2882487143471075</v>
+        <v>0.1488087948733803</v>
       </c>
     </row>
     <row r="5699">
       <c r="A5699" t="n">
-        <v>0.1527293339024076</v>
+        <v>0.3228004434404338</v>
       </c>
       <c r="B5699" t="n">
-        <v>0.3584843433452395</v>
+        <v>0.2784853536617615</v>
       </c>
       <c r="C5699" t="n">
-        <v>0.4887863227523528</v>
+        <v>0.3987142028978047</v>
       </c>
     </row>
     <row r="5700">
       <c r="A5700" t="n">
-        <v>0.1713127993736608</v>
+        <v>0.3996380676774526</v>
       </c>
       <c r="B5700" t="n">
-        <v>0.3820472169783513</v>
+        <v>0.274739271871636</v>
       </c>
       <c r="C5700" t="n">
-        <v>0.4466399836479879</v>
+        <v>0.3256226604509114</v>
       </c>
     </row>
     <row r="5701">
       <c r="A5701" t="n">
-        <v>0.302429131434911</v>
+        <v>0.7011964486035872</v>
       </c>
       <c r="B5701" t="n">
-        <v>0.4429111044018246</v>
+        <v>0.191108581151243</v>
       </c>
       <c r="C5701" t="n">
-        <v>0.2546597641632645</v>
+        <v>0.1076949702451698</v>
       </c>
     </row>
     <row r="5702">
       <c r="A5702" t="n">
-        <v>0.1285302063680448</v>
+        <v>0.2003878906455507</v>
       </c>
       <c r="B5702" t="n">
-        <v>0.3134768795487495</v>
+        <v>0.2588828806283601</v>
       </c>
       <c r="C5702" t="n">
-        <v>0.5579929140832057</v>
+        <v>0.5407292287260893</v>
       </c>
     </row>
     <row r="5703">
       <c r="A5703" t="n">
-        <v>0.3477693548147219</v>
+        <v>0.7556291684348537</v>
       </c>
       <c r="B5703" t="n">
-        <v>0.426901381219578</v>
+        <v>0.1608976267235865</v>
       </c>
       <c r="C5703" t="n">
-        <v>0.2253292639657</v>
+        <v>0.08347320484155989</v>
       </c>
     </row>
     <row r="5704">
       <c r="A5704" t="n">
-        <v>0.123711230502107</v>
+        <v>0.168054267761781</v>
       </c>
       <c r="B5704" t="n">
-        <v>0.280419859258841</v>
+        <v>0.2231020667861365</v>
       </c>
       <c r="C5704" t="n">
-        <v>0.5958689102390521</v>
+        <v>0.6088436654520825</v>
       </c>
     </row>
     <row r="5705">
       <c r="A5705" t="n">
-        <v>0.1569466528826612</v>
+        <v>0.3403966506805152</v>
       </c>
       <c r="B5705" t="n">
-        <v>0.397237390399563</v>
+        <v>0.3087107922395099</v>
       </c>
       <c r="C5705" t="n">
-        <v>0.4458159567177759</v>
+        <v>0.3508925570799749</v>
       </c>
     </row>
     <row r="5706">
       <c r="A5706" t="n">
-        <v>0.1556403829285653</v>
+        <v>0.3360844733234277</v>
       </c>
       <c r="B5706" t="n">
-        <v>0.3840242156083724</v>
+        <v>0.2978576752768617</v>
       </c>
       <c r="C5706" t="n">
-        <v>0.4603354014630623</v>
+        <v>0.3660578513997105</v>
       </c>
     </row>
     <row r="5707">
       <c r="A5707" t="n">
-        <v>0.1373331060262706</v>
+        <v>0.2455179212731497</v>
       </c>
       <c r="B5707" t="n">
-        <v>0.3186334964677314</v>
+        <v>0.2592493486374198</v>
       </c>
       <c r="C5707" t="n">
-        <v>0.544033397505998</v>
+        <v>0.4952327300894303</v>
       </c>
     </row>
     <row r="5708">
       <c r="A5708" t="n">
-        <v>0.1383688278018875</v>
+        <v>0.2524558519646865</v>
       </c>
       <c r="B5708" t="n">
-        <v>0.3304030558767423</v>
+        <v>0.2687774163475196</v>
       </c>
       <c r="C5708" t="n">
-        <v>0.5312281163213701</v>
+        <v>0.4787667316877939</v>
       </c>
     </row>
     <row r="5709">
       <c r="A5709" t="n">
-        <v>0.3153740731178986</v>
+        <v>0.7176438780109401</v>
       </c>
       <c r="B5709" t="n">
-        <v>0.429513004370503</v>
+        <v>0.1783048599496972</v>
       </c>
       <c r="C5709" t="n">
-        <v>0.2551129225115983</v>
+        <v>0.1040512620393628</v>
       </c>
     </row>
     <row r="5710">
       <c r="A5710" t="n">
-        <v>0.1790689653193821</v>
+        <v>0.4271198350090641</v>
       </c>
       <c r="B5710" t="n">
-        <v>0.4090963861950778</v>
+        <v>0.2858725934761605</v>
       </c>
       <c r="C5710" t="n">
-        <v>0.4118346484855401</v>
+        <v>0.2870075715147756</v>
       </c>
     </row>
     <row r="5711">
       <c r="A5711" t="n">
-        <v>0.1549089378030865</v>
+        <v>0.3328889527214862</v>
       </c>
       <c r="B5711" t="n">
-        <v>0.3915871596702679</v>
+        <v>0.3059265335757014</v>
       </c>
       <c r="C5711" t="n">
-        <v>0.4535039025266456</v>
+        <v>0.3611845137028125</v>
       </c>
     </row>
     <row r="5712">
       <c r="A5712" t="n">
-        <v>0.2201078165791794</v>
+        <v>0.5480218032283839</v>
       </c>
       <c r="B5712" t="n">
-        <v>0.4361728365273126</v>
+        <v>0.2549219587327801</v>
       </c>
       <c r="C5712" t="n">
-        <v>0.3437193468935079</v>
+        <v>0.1970562380388361</v>
       </c>
     </row>
     <row r="5713">
       <c r="A5713" t="n">
-        <v>0.1682565057758977</v>
+        <v>0.3663532047101203</v>
       </c>
       <c r="B5713" t="n">
-        <v>0.403581924270799</v>
+        <v>0.3067820003425319</v>
       </c>
       <c r="C5713" t="n">
-        <v>0.4281615699533033</v>
+        <v>0.3268647949473477</v>
       </c>
     </row>
     <row r="5714">
       <c r="A5714" t="n">
-        <v>0.159727491053913</v>
+        <v>0.3306201305982469</v>
       </c>
       <c r="B5714" t="n">
-        <v>0.3508499218759115</v>
+        <v>0.271591887975036</v>
       </c>
       <c r="C5714" t="n">
-        <v>0.4894225870701754</v>
+        <v>0.3977879814267171</v>
       </c>
     </row>
     <row r="5715">
       <c r="A5715" t="n">
-        <v>0.1689427557353927</v>
+        <v>0.3687172609145815</v>
       </c>
       <c r="B5715" t="n">
-        <v>0.414342527111945</v>
+        <v>0.3154692641067536</v>
       </c>
       <c r="C5715" t="n">
-        <v>0.4167147171526623</v>
+        <v>0.315813474978665</v>
       </c>
     </row>
     <row r="5716">
       <c r="A5716" t="n">
-        <v>0.3933788567781544</v>
+        <v>0.7896057602737886</v>
       </c>
       <c r="B5716" t="n">
-        <v>0.3936515946035148</v>
+        <v>0.1372083325398395</v>
       </c>
       <c r="C5716" t="n">
-        <v>0.2129695486183307</v>
+        <v>0.07318590718637198</v>
       </c>
     </row>
     <row r="5717">
       <c r="A5717" t="n">
-        <v>0.4294300672709988</v>
+        <v>0.8177958789973038</v>
       </c>
       <c r="B5717" t="n">
-        <v>0.3919379740911616</v>
+        <v>0.125719001185278</v>
       </c>
       <c r="C5717" t="n">
-        <v>0.1786319586378396</v>
+        <v>0.05648511981741829</v>
       </c>
     </row>
     <row r="5718">
       <c r="A5718" t="n">
-        <v>0.2448228216386776</v>
+        <v>0.5865011356318748</v>
       </c>
       <c r="B5718" t="n">
-        <v>0.4475895906164267</v>
+        <v>0.247488935813878</v>
       </c>
       <c r="C5718" t="n">
-        <v>0.3075875877448956</v>
+        <v>0.1660099285542473</v>
       </c>
     </row>
     <row r="5719">
       <c r="A5719" t="n">
-        <v>0.211911314075661</v>
+        <v>0.4891046037439386</v>
       </c>
       <c r="B5719" t="n">
-        <v>0.4201547559907738</v>
+        <v>0.2742512531429484</v>
       </c>
       <c r="C5719" t="n">
-        <v>0.3679339299335653</v>
+        <v>0.2366441431131131</v>
       </c>
     </row>
     <row r="5720">
       <c r="A5720" t="n">
-        <v>0.1221318160687891</v>
+        <v>0.128992628992629</v>
       </c>
       <c r="B5720" t="n">
-        <v>0.2778063873200035</v>
+        <v>0.2174447174447174</v>
       </c>
       <c r="C5720" t="n">
-        <v>0.6000617966112074</v>
+        <v>0.6535626535626536</v>
       </c>
     </row>
     <row r="5721">
       <c r="A5721" t="n">
-        <v>0.2626041837202751</v>
+        <v>0.6220163564063365</v>
       </c>
       <c r="B5721" t="n">
-        <v>0.4276049432972129</v>
+        <v>0.2210451705991184</v>
       </c>
       <c r="C5721" t="n">
-        <v>0.309790872982512</v>
+        <v>0.156938472994545</v>
       </c>
     </row>
     <row r="5722">
       <c r="A5722" t="n">
-        <v>0.1412323756997305</v>
+        <v>0.2453393099451522</v>
       </c>
       <c r="B5722" t="n">
-        <v>0.3112855541300529</v>
+        <v>0.2525017211723092</v>
       </c>
       <c r="C5722" t="n">
-        <v>0.5474820701702166</v>
+        <v>0.5021589688825385</v>
       </c>
     </row>
     <row r="5723">
       <c r="A5723" t="n">
-        <v>0.1232817874074934</v>
+        <v>0.1468921931564846</v>
       </c>
       <c r="B5723" t="n">
-        <v>0.2983070867422808</v>
+        <v>0.2414456057104289</v>
       </c>
       <c r="C5723" t="n">
-        <v>0.5784111258502258</v>
+        <v>0.6116622011330866</v>
       </c>
     </row>
     <row r="5724">
       <c r="A5724" t="n">
-        <v>0.3817232372282408</v>
+        <v>0.7785684829361624</v>
       </c>
       <c r="B5724" t="n">
-        <v>0.4248762614829585</v>
+        <v>0.1530325335996377</v>
       </c>
       <c r="C5724" t="n">
-        <v>0.1934005012888006</v>
+        <v>0.06839898346419991</v>
       </c>
     </row>
     <row r="5725">
       <c r="A5725" t="n">
-        <v>0.2118138328178494</v>
+        <v>0.5075685947825364</v>
       </c>
       <c r="B5725" t="n">
-        <v>0.4269597709989046</v>
+        <v>0.2687404949637465</v>
       </c>
       <c r="C5725" t="n">
-        <v>0.3612263961832459</v>
+        <v>0.2236909102537172</v>
       </c>
     </row>
     <row r="5726">
       <c r="A5726" t="n">
-        <v>0.1252762264454177</v>
+        <v>0.1580535701968922</v>
       </c>
       <c r="B5726" t="n">
-        <v>0.2915745911848608</v>
+        <v>0.2354386583340264</v>
       </c>
       <c r="C5726" t="n">
-        <v>0.5831491823697216</v>
+        <v>0.6065077714690815</v>
       </c>
     </row>
     <row r="5727">
       <c r="A5727" t="n">
-        <v>0.3322812424030994</v>
+        <v>0.7261731639723485</v>
       </c>
       <c r="B5727" t="n">
-        <v>0.4383560224561741</v>
+        <v>0.1810322213593875</v>
       </c>
       <c r="C5727" t="n">
-        <v>0.2293627351407266</v>
+        <v>0.09279461466826389</v>
       </c>
     </row>
     <row r="5728">
       <c r="A5728" t="n">
-        <v>0.1550937703575189</v>
+        <v>0.3139614555310921</v>
       </c>
       <c r="B5728" t="n">
-        <v>0.3888417282616192</v>
+        <v>0.3117623720602386</v>
       </c>
       <c r="C5728" t="n">
-        <v>0.4560645013808618</v>
+        <v>0.3742761724086693</v>
       </c>
     </row>
     <row r="5729">
       <c r="A5729" t="n">
-        <v>0.4687273088142085</v>
+        <v>0.8442647814537746</v>
       </c>
       <c r="B5729" t="n">
-        <v>0.368126194697376</v>
+        <v>0.1083201676897988</v>
       </c>
       <c r="C5729" t="n">
-        <v>0.1631464964884155</v>
+        <v>0.04741505085642662</v>
       </c>
     </row>
     <row r="5730">
       <c r="A5730" t="n">
-        <v>0.2042274849644847</v>
+        <v>0.4868319138372227</v>
       </c>
       <c r="B5730" t="n">
-        <v>0.4189550976906395</v>
+        <v>0.2717839819730359</v>
       </c>
       <c r="C5730" t="n">
-        <v>0.3768174173448757</v>
+        <v>0.2413841041897414</v>
       </c>
     </row>
     <row r="5731">
       <c r="A5731" t="n">
-        <v>0.1839505479325108</v>
+        <v>0.4136215358220365</v>
       </c>
       <c r="B5731" t="n">
-        <v>0.3854539294931559</v>
+        <v>0.2755504461341846</v>
       </c>
       <c r="C5731" t="n">
-        <v>0.4305955225743333</v>
+        <v>0.3108280180437789</v>
       </c>
     </row>
     <row r="5732">
       <c r="A5732" t="n">
-        <v>0.1525813170438548</v>
+        <v>0.300713500569023</v>
       </c>
       <c r="B5732" t="n">
-        <v>0.350043220904099</v>
+        <v>0.2789437008174044</v>
       </c>
       <c r="C5732" t="n">
-        <v>0.4973754620520462</v>
+        <v>0.4203427986135725</v>
       </c>
     </row>
     <row r="5733">
       <c r="A5733" t="n">
-        <v>0.1281066278301745</v>
+        <v>0.1876252095524052</v>
       </c>
       <c r="B5733" t="n">
-        <v>0.3048147182523016</v>
+        <v>0.2496814992146281</v>
       </c>
       <c r="C5733" t="n">
-        <v>0.5670786539175239</v>
+        <v>0.5626932912329666</v>
       </c>
     </row>
     <row r="5734">
       <c r="A5734" t="n">
-        <v>0.1332455909449855</v>
+        <v>0.219255094869993</v>
       </c>
       <c r="B5734" t="n">
-        <v>0.3337720452750724</v>
+        <v>0.2782853127196064</v>
       </c>
       <c r="C5734" t="n">
-        <v>0.5329823637799421</v>
+        <v>0.5024595924104006</v>
       </c>
     </row>
     <row r="5735">
       <c r="A5735" t="n">
-        <v>0.2387686417389693</v>
+        <v>0.5818922651448329</v>
       </c>
       <c r="B5735" t="n">
-        <v>0.445650851194833</v>
+        <v>0.2470437749719751</v>
       </c>
       <c r="C5735" t="n">
-        <v>0.3155805070661976</v>
+        <v>0.1710639598831918</v>
       </c>
     </row>
     <row r="5736">
       <c r="A5736" t="n">
-        <v>0.1496707750553246</v>
+        <v>0.2993558165971958</v>
       </c>
       <c r="B5736" t="n">
-        <v>0.3658979685191992</v>
+        <v>0.2932929139825691</v>
       </c>
       <c r="C5736" t="n">
-        <v>0.4844312564254762</v>
+        <v>0.407351269420235</v>
       </c>
     </row>
     <row r="5737">
       <c r="A5737" t="n">
-        <v>0.115889634744391</v>
+        <v>0.1047105974573539</v>
       </c>
       <c r="B5737" t="n">
-        <v>0.2617100891458728</v>
+        <v>0.1874662952206311</v>
       </c>
       <c r="C5737" t="n">
-        <v>0.6224002761097361</v>
+        <v>0.707823107322015</v>
       </c>
     </row>
     <row r="5738">
       <c r="A5738" t="n">
-        <v>0.4390884303619995</v>
+        <v>0.8288211178645823</v>
       </c>
       <c r="B5738" t="n">
-        <v>0.3858257050962654</v>
+        <v>0.1182333850085169</v>
       </c>
       <c r="C5738" t="n">
-        <v>0.175085864541735</v>
+        <v>0.05294549712690073</v>
       </c>
     </row>
     <row r="5739">
       <c r="A5739" t="n">
-        <v>0.3805282554975034</v>
+        <v>0.7829064905602408</v>
       </c>
       <c r="B5739" t="n">
-        <v>0.4221113631875282</v>
+        <v>0.1487401076541913</v>
       </c>
       <c r="C5739" t="n">
-        <v>0.1973603813149684</v>
+        <v>0.06835340178556787</v>
       </c>
     </row>
     <row r="5740">
       <c r="A5740" t="n">
-        <v>0.3173561794748439</v>
+        <v>0.7139007482522883</v>
       </c>
       <c r="B5740" t="n">
-        <v>0.4304250527994652</v>
+        <v>0.181610259357781</v>
       </c>
       <c r="C5740" t="n">
-        <v>0.2522187677256908</v>
+        <v>0.1044889923899307</v>
       </c>
     </row>
     <row r="5741">
       <c r="A5741" t="n">
-        <v>0.1292687838199243</v>
+        <v>0.1936390600430402</v>
       </c>
       <c r="B5741" t="n">
-        <v>0.3064573544762519</v>
+        <v>0.2520180262253006</v>
       </c>
       <c r="C5741" t="n">
-        <v>0.5642738617038238</v>
+        <v>0.5543429137316592</v>
       </c>
     </row>
     <row r="5742">
       <c r="A5742" t="n">
-        <v>0.1820573302274664</v>
+        <v>0.4282212548664463</v>
       </c>
       <c r="B5742" t="n">
-        <v>0.3957904405634153</v>
+        <v>0.2760603785557004</v>
       </c>
       <c r="C5742" t="n">
-        <v>0.4221522292091183</v>
+        <v>0.2957183665778533</v>
       </c>
     </row>
     <row r="5743">
       <c r="A5743" t="n">
-        <v>0.144706353805762</v>
+        <v>0.2776061706753094</v>
       </c>
       <c r="B5743" t="n">
-        <v>0.3520923471553948</v>
+        <v>0.2856127136385953</v>
       </c>
       <c r="C5743" t="n">
-        <v>0.5032012990388433</v>
+        <v>0.4367811156860953</v>
       </c>
     </row>
     <row r="5744">
       <c r="A5744" t="n">
-        <v>0.1939108570182552</v>
+        <v>0.4677665267942594</v>
       </c>
       <c r="B5744" t="n">
-        <v>0.4366316191151118</v>
+        <v>0.2907865763430171</v>
       </c>
       <c r="C5744" t="n">
-        <v>0.369457523866633</v>
+        <v>0.2414468968627236</v>
       </c>
     </row>
     <row r="5745">
       <c r="A5745" t="n">
-        <v>0.2522499378867307</v>
+        <v>0.6116319565536332</v>
       </c>
       <c r="B5745" t="n">
-        <v>0.4433715303560029</v>
+        <v>0.2322278529115367</v>
       </c>
       <c r="C5745" t="n">
-        <v>0.3043785317572664</v>
+        <v>0.15614019053483</v>
       </c>
     </row>
     <row r="5746">
       <c r="A5746" t="n">
-        <v>0.2679449575959927</v>
+        <v>0.6409200152343596</v>
       </c>
       <c r="B5746" t="n">
-        <v>0.4162603191292017</v>
+        <v>0.2054230818058845</v>
       </c>
       <c r="C5746" t="n">
-        <v>0.3157947232748056</v>
+        <v>0.1536569029597559</v>
       </c>
     </row>
     <row r="5747">
       <c r="A5747" t="n">
-        <v>0.311320262454037</v>
+        <v>0.7078137908371741</v>
       </c>
       <c r="B5747" t="n">
-        <v>0.439413549414944</v>
+        <v>0.1877778817039412</v>
       </c>
       <c r="C5747" t="n">
-        <v>0.249266188131019</v>
+        <v>0.1044083274588847</v>
       </c>
     </row>
     <row r="5748">
       <c r="A5748" t="n">
-        <v>0.2152659330002247</v>
+        <v>0.5283439336288828</v>
       </c>
       <c r="B5748" t="n">
-        <v>0.4347990523568437</v>
+        <v>0.2635669004680959</v>
       </c>
       <c r="C5748" t="n">
-        <v>0.3499350146429315</v>
+        <v>0.2080891659030212</v>
       </c>
     </row>
     <row r="5749">
       <c r="A5749" t="n">
-        <v>0.1499941683237314</v>
+        <v>0.2914003406051029</v>
       </c>
       <c r="B5749" t="n">
-        <v>0.3499654643099535</v>
+        <v>0.281558625724167</v>
       </c>
       <c r="C5749" t="n">
-        <v>0.5000403673663151</v>
+        <v>0.4270410336707299</v>
       </c>
     </row>
     <row r="5750">
       <c r="A5750" t="n">
-        <v>0.1289763817032767</v>
+        <v>0.1919828549254156</v>
       </c>
       <c r="B5750" t="n">
-        <v>0.3049981738230381</v>
+        <v>0.2494029545780107</v>
       </c>
       <c r="C5750" t="n">
-        <v>0.5660254444736853</v>
+        <v>0.5586141904965736</v>
       </c>
     </row>
     <row r="5751">
       <c r="A5751" t="n">
-        <v>0.3143469322954036</v>
+        <v>0.7117171274390283</v>
       </c>
       <c r="B5751" t="n">
-        <v>0.432071248507284</v>
+        <v>0.1829158349819413</v>
       </c>
       <c r="C5751" t="n">
-        <v>0.2535818191973124</v>
+        <v>0.1053670375790306</v>
       </c>
     </row>
     <row r="5752">
       <c r="A5752" t="n">
-        <v>0.116208337674336</v>
+        <v>0.09996130705581675</v>
       </c>
       <c r="B5752" t="n">
-        <v>0.2561736190599248</v>
+        <v>0.1775510572929592</v>
       </c>
       <c r="C5752" t="n">
-        <v>0.6276180432657392</v>
+        <v>0.7224876356512241</v>
       </c>
     </row>
     <row r="5753">
       <c r="A5753" t="n">
-        <v>0.3257455446787606</v>
+        <v>0.7189927954896681</v>
       </c>
       <c r="B5753" t="n">
-        <v>0.4186391223644433</v>
+        <v>0.1755934351515217</v>
       </c>
       <c r="C5753" t="n">
-        <v>0.2556153329567962</v>
+        <v>0.1054137693588102</v>
       </c>
     </row>
     <row r="5754">
       <c r="A5754" t="n">
-        <v>0.1213059353153258</v>
+        <v>0.1354430823066061</v>
       </c>
       <c r="B5754" t="n">
-        <v>0.2753102093274811</v>
+        <v>0.2127179753058448</v>
       </c>
       <c r="C5754" t="n">
-        <v>0.6033838553571931</v>
+        <v>0.6518389423875491</v>
       </c>
     </row>
     <row r="5755">
       <c r="A5755" t="n">
-        <v>0.2005836015037152</v>
+        <v>0.4763194578238154</v>
       </c>
       <c r="B5755" t="n">
-        <v>0.4249936756893499</v>
+        <v>0.2802150269539233</v>
       </c>
       <c r="C5755" t="n">
-        <v>0.374422722806935</v>
+        <v>0.2434655152222613</v>
       </c>
     </row>
     <row r="5756">
       <c r="A5756" t="n">
-        <v>0.170953003171251</v>
+        <v>0.3763732707369939</v>
       </c>
       <c r="B5756" t="n">
-        <v>0.3706145697442564</v>
+        <v>0.2751245676775175</v>
       </c>
       <c r="C5756" t="n">
-        <v>0.4584324270844926</v>
+        <v>0.3485021615854887</v>
       </c>
     </row>
     <row r="5757">
       <c r="A5757" t="n">
-        <v>0.3553368047896701</v>
+        <v>0.752169796261106</v>
       </c>
       <c r="B5757" t="n">
-        <v>0.417874552457174</v>
+        <v>0.1616440812506424</v>
       </c>
       <c r="C5757" t="n">
-        <v>0.2267886427531559</v>
+        <v>0.08618612248825173</v>
       </c>
     </row>
     <row r="5758">
       <c r="A5758" t="n">
-        <v>0.1924387152920757</v>
+        <v>0.4509086193601107</v>
       </c>
       <c r="B5758" t="n">
-        <v>0.448778485112576</v>
+        <v>0.3087193700696429</v>
       </c>
       <c r="C5758" t="n">
-        <v>0.3587827995953482</v>
+        <v>0.2403720105702463</v>
       </c>
     </row>
     <row r="5759">
       <c r="A5759" t="n">
-        <v>0.125332963047417</v>
+        <v>0.1615778488459737</v>
       </c>
       <c r="B5759" t="n">
-        <v>0.2844582313215426</v>
+        <v>0.2276749807013088</v>
       </c>
       <c r="C5759" t="n">
-        <v>0.5902088056310404</v>
+        <v>0.6107471704527174</v>
       </c>
     </row>
     <row r="5760">
       <c r="A5760" t="n">
-        <v>0.206670241258176</v>
+        <v>0.4948749379225633</v>
       </c>
       <c r="B5760" t="n">
-        <v>0.4174581176749506</v>
+        <v>0.2672829405098683</v>
       </c>
       <c r="C5760" t="n">
-        <v>0.3758716410668734</v>
+        <v>0.2378421215675685</v>
       </c>
     </row>
     <row r="5761">
       <c r="A5761" t="n">
-        <v>0.2021318452492274</v>
+        <v>0.4810652997377582</v>
       </c>
       <c r="B5761" t="n">
-        <v>0.4387138286806243</v>
+        <v>0.2880156654960357</v>
       </c>
       <c r="C5761" t="n">
-        <v>0.3591543260701484</v>
+        <v>0.230919034766206</v>
       </c>
     </row>
     <row r="5762">
       <c r="A5762" t="n">
-        <v>0.1973453163047779</v>
+        <v>0.4677226477531623</v>
       </c>
       <c r="B5762" t="n">
-        <v>0.38598891761068</v>
+        <v>0.2553658134284507</v>
       </c>
       <c r="C5762" t="n">
-        <v>0.416665766084542</v>
+        <v>0.2769115388183871</v>
       </c>
     </row>
     <row r="5763">
       <c r="A5763" t="n">
-        <v>0.1173062852780462</v>
+        <v>0.0973621798062837</v>
       </c>
       <c r="B5763" t="n">
-        <v>0.2555838231855689</v>
+        <v>0.1738966561891081</v>
       </c>
       <c r="C5763" t="n">
-        <v>0.6271098915363849</v>
+        <v>0.7287411640046083</v>
       </c>
     </row>
     <row r="5764">
       <c r="A5764" t="n">
-        <v>0.1737173237163191</v>
+        <v>0.4073919398621842</v>
       </c>
       <c r="B5764" t="n">
-        <v>0.4119176340188412</v>
+        <v>0.2963040300689079</v>
       </c>
       <c r="C5764" t="n">
-        <v>0.4143650422648397</v>
+        <v>0.2963040300689079</v>
       </c>
     </row>
     <row r="5765">
       <c r="A5765" t="n">
-        <v>0.1800541912301695</v>
+        <v>0.4305523715644534</v>
       </c>
       <c r="B5765" t="n">
-        <v>0.4360144122064538</v>
+        <v>0.3053256109296309</v>
       </c>
       <c r="C5765" t="n">
-        <v>0.3839313965633767</v>
+        <v>0.2641220175059158</v>
       </c>
     </row>
     <row r="5766">
       <c r="A5766" t="n">
-        <v>0.3795913944914603</v>
+        <v>0.7866355068645285</v>
       </c>
       <c r="B5766" t="n">
-        <v>0.4219440390460494</v>
+        <v>0.1459017779685474</v>
       </c>
       <c r="C5766" t="n">
-        <v>0.1984645664624901</v>
+        <v>0.06746271516692399</v>
       </c>
     </row>
     <row r="5767">
       <c r="A5767" t="n">
-        <v>0.1807223070157881</v>
+        <v>0.4325962397215496</v>
       </c>
       <c r="B5767" t="n">
-        <v>0.4133439408459944</v>
+        <v>0.2871803239859543</v>
       </c>
       <c r="C5767" t="n">
-        <v>0.4059337521382174</v>
+        <v>0.2802234362924961</v>
       </c>
     </row>
     <row r="5768">
       <c r="A5768" t="n">
-        <v>0.2032605434616242</v>
+        <v>0.5028641479626049</v>
       </c>
       <c r="B5768" t="n">
-        <v>0.4352818821253043</v>
+        <v>0.2739643935557292</v>
       </c>
       <c r="C5768" t="n">
-        <v>0.3614575744130715</v>
+        <v>0.2231714584816659</v>
       </c>
     </row>
     <row r="5769">
       <c r="A5769" t="n">
-        <v>0.1441332126323522</v>
+        <v>0.2790347763671658</v>
       </c>
       <c r="B5769" t="n">
-        <v>0.319431833128228</v>
+        <v>0.2525934896983121</v>
       </c>
       <c r="C5769" t="n">
-        <v>0.5364349542394198</v>
+        <v>0.4683717339345221</v>
       </c>
     </row>
     <row r="5770">
       <c r="A5770" t="n">
-        <v>0.2198944697342878</v>
+        <v>0.5476686912790614</v>
       </c>
       <c r="B5770" t="n">
-        <v>0.4244068143997224</v>
+        <v>0.2476822860773828</v>
       </c>
       <c r="C5770" t="n">
-        <v>0.3556987158659899</v>
+        <v>0.2046490226435558</v>
       </c>
     </row>
     <row r="5771">
       <c r="A5771" t="n">
-        <v>0.1906577242123687</v>
+        <v>0.465690219432373</v>
       </c>
       <c r="B5771" t="n">
-        <v>0.4047563138857949</v>
+        <v>0.2677718761736144</v>
       </c>
       <c r="C5771" t="n">
-        <v>0.4045859619018363</v>
+        <v>0.2665379043940125</v>
       </c>
     </row>
     <row r="5772">
       <c r="A5772" t="n">
-        <v>0.4167950619905854</v>
+        <v>0.8128314337997939</v>
       </c>
       <c r="B5772" t="n">
-        <v>0.3936744963329367</v>
+        <v>0.1269211167798227</v>
       </c>
       <c r="C5772" t="n">
-        <v>0.1895304416764778</v>
+        <v>0.06024744942038352</v>
       </c>
     </row>
     <row r="5773">
       <c r="A5773" t="n">
-        <v>0.1564103998566395</v>
+        <v>0.317324500175055</v>
       </c>
       <c r="B5773" t="n">
-        <v>0.345427528022155</v>
+        <v>0.2698367777712356</v>
       </c>
       <c r="C5773" t="n">
-        <v>0.4981620721212054</v>
+        <v>0.4128387220537093</v>
       </c>
     </row>
     <row r="5774">
       <c r="A5774" t="n">
-        <v>0.180350499436726</v>
+        <v>0.4112199816036087</v>
       </c>
       <c r="B5774" t="n">
-        <v>0.3744647864704482</v>
+        <v>0.266317500752959</v>
       </c>
       <c r="C5774" t="n">
-        <v>0.4451847140928258</v>
+        <v>0.3224625176434322</v>
       </c>
     </row>
     <row r="5775">
       <c r="A5775" t="n">
-        <v>0.4178314394745429</v>
+        <v>0.8091586833097094</v>
       </c>
       <c r="B5775" t="n">
-        <v>0.3968570739527032</v>
+        <v>0.1307102488423376</v>
       </c>
       <c r="C5775" t="n">
-        <v>0.185311486572754</v>
+        <v>0.06013106784795301</v>
       </c>
     </row>
     <row r="5776">
       <c r="A5776" t="n">
-        <v>0.3432523593195986</v>
+        <v>0.739458990570107</v>
       </c>
       <c r="B5776" t="n">
-        <v>0.4333684686395278</v>
+        <v>0.1730648701334293</v>
       </c>
       <c r="C5776" t="n">
-        <v>0.2233791720408737</v>
+        <v>0.08747613929646371</v>
       </c>
     </row>
     <row r="5777">
       <c r="A5777" t="n">
-        <v>0.2049557464575268</v>
+        <v>0.4891452029978524</v>
       </c>
       <c r="B5777" t="n">
-        <v>0.4477379532023267</v>
+        <v>0.2906835746322079</v>
       </c>
       <c r="C5777" t="n">
-        <v>0.3473063003401465</v>
+        <v>0.2201712223699397</v>
       </c>
     </row>
     <row r="5778">
       <c r="A5778" t="n">
-        <v>0.1659250446072199</v>
+        <v>0.357342926779752</v>
       </c>
       <c r="B5778" t="n">
-        <v>0.3779122142123411</v>
+        <v>0.2875091275632217</v>
       </c>
       <c r="C5778" t="n">
-        <v>0.456162741180439</v>
+        <v>0.3551479456570263</v>
       </c>
     </row>
     <row r="5779">
       <c r="A5779" t="n">
-        <v>0.244416673647938</v>
+        <v>0.5858837865800695</v>
       </c>
       <c r="B5779" t="n">
-        <v>0.4388977294312092</v>
+        <v>0.2427057363275089</v>
       </c>
       <c r="C5779" t="n">
-        <v>0.3166855969208528</v>
+        <v>0.1714104770924219</v>
       </c>
     </row>
     <row r="5780">
       <c r="A5780" t="n">
-        <v>0.1808287271317127</v>
+        <v>0.4126959796771043</v>
       </c>
       <c r="B5780" t="n">
-        <v>0.4225530695188972</v>
+        <v>0.3045830928390201</v>
       </c>
       <c r="C5780" t="n">
-        <v>0.3966182033493901</v>
+        <v>0.2827209274838756</v>
       </c>
     </row>
     <row r="5781">
       <c r="A5781" t="n">
-        <v>0.1282808703065347</v>
+        <v>0.1812560583450483</v>
       </c>
       <c r="B5781" t="n">
-        <v>0.315889899551503</v>
+        <v>0.2620787009298706</v>
       </c>
       <c r="C5781" t="n">
-        <v>0.5558292301419623</v>
+        <v>0.5566652407250809</v>
       </c>
     </row>
     <row r="5782">
       <c r="A5782" t="n">
-        <v>0.1146047704164563</v>
+        <v>0.04731019969540601</v>
       </c>
       <c r="B5782" t="n">
-        <v>0.2341904175959526</v>
+        <v>0.1171284100445963</v>
       </c>
       <c r="C5782" t="n">
-        <v>0.6512048119875911</v>
+        <v>0.8355613902599978</v>
       </c>
     </row>
     <row r="5783">
       <c r="A5783" t="n">
-        <v>0.3860532739183167</v>
+        <v>0.7830796156775771</v>
       </c>
       <c r="B5783" t="n">
-        <v>0.4105781201152369</v>
+        <v>0.1458366895593868</v>
       </c>
       <c r="C5783" t="n">
-        <v>0.2033686059664465</v>
+        <v>0.0710836947630361</v>
       </c>
     </row>
     <row r="5784">
       <c r="A5784" t="n">
-        <v>0.1789004822306501</v>
+        <v>0.4054341385739386</v>
       </c>
       <c r="B5784" t="n">
-        <v>0.4128914755107568</v>
+        <v>0.2997234268091868</v>
       </c>
       <c r="C5784" t="n">
-        <v>0.4082080422585931</v>
+        <v>0.2948424346168744</v>
       </c>
     </row>
     <row r="5785">
       <c r="A5785" t="n">
-        <v>0.138856397678873</v>
+        <v>0.2396592542789909</v>
       </c>
       <c r="B5785" t="n">
-        <v>0.3508442202587568</v>
+        <v>0.293768015392208</v>
       </c>
       <c r="C5785" t="n">
-        <v>0.5102993820623702</v>
+        <v>0.466572730328801</v>
       </c>
     </row>
     <row r="5786">
       <c r="A5786" t="n">
-        <v>0.3635050935035583</v>
+        <v>0.7610062274214218</v>
       </c>
       <c r="B5786" t="n">
-        <v>0.4243488758923435</v>
+        <v>0.1603118863760364</v>
       </c>
       <c r="C5786" t="n">
-        <v>0.2121460306040983</v>
+        <v>0.07868188620254177</v>
       </c>
     </row>
     <row r="5787">
       <c r="A5787" t="n">
-        <v>0.1127203750705103</v>
+        <v>0.05897763666103117</v>
       </c>
       <c r="B5787" t="n">
-        <v>0.2392341409799479</v>
+        <v>0.130947177435982</v>
       </c>
       <c r="C5787" t="n">
-        <v>0.6480454839495418</v>
+        <v>0.8100751859029869</v>
       </c>
     </row>
     <row r="5788">
       <c r="A5788" t="n">
-        <v>0.1969009428786263</v>
+        <v>0.4643380100913144</v>
       </c>
       <c r="B5788" t="n">
-        <v>0.4175643082471961</v>
+        <v>0.2798565634590853</v>
       </c>
       <c r="C5788" t="n">
-        <v>0.3855347488741775</v>
+        <v>0.2558054264496002</v>
       </c>
     </row>
     <row r="5789">
       <c r="A5789" t="n">
-        <v>0.128668262367778</v>
+        <v>0.1765819744357003</v>
       </c>
       <c r="B5789" t="n">
-        <v>0.2908892810846673</v>
+        <v>0.2345117462599021</v>
       </c>
       <c r="C5789" t="n">
-        <v>0.5804424565475548</v>
+        <v>0.5889062793043977</v>
       </c>
     </row>
     <row r="5790">
       <c r="A5790" t="n">
-        <v>0.3866573703603137</v>
+        <v>0.7832976150436607</v>
       </c>
       <c r="B5790" t="n">
-        <v>0.4109122801403285</v>
+        <v>0.1459646883153421</v>
       </c>
       <c r="C5790" t="n">
-        <v>0.2024303494993579</v>
+        <v>0.07073769664099717</v>
       </c>
     </row>
     <row r="5791">
       <c r="A5791" t="n">
-        <v>0.1799936280706156</v>
+        <v>0.4097480594795982</v>
       </c>
       <c r="B5791" t="n">
-        <v>0.4004119236084889</v>
+        <v>0.2881296115464107</v>
       </c>
       <c r="C5791" t="n">
-        <v>0.4195944483208955</v>
+        <v>0.3021223289739909</v>
       </c>
     </row>
     <row r="5792">
       <c r="A5792" t="n">
-        <v>0.2439944525974867</v>
+        <v>0.5854060850576459</v>
       </c>
       <c r="B5792" t="n">
-        <v>0.4396883536988487</v>
+        <v>0.2432217039684416</v>
       </c>
       <c r="C5792" t="n">
-        <v>0.3163171937036646</v>
+        <v>0.1713722109739124</v>
       </c>
     </row>
     <row r="5793">
       <c r="A5793" t="n">
-        <v>0.1736008195626857</v>
+        <v>0.3763874974998573</v>
       </c>
       <c r="B5793" t="n">
-        <v>0.3944974871253092</v>
+        <v>0.2965594114522441</v>
       </c>
       <c r="C5793" t="n">
-        <v>0.4319016933120051</v>
+        <v>0.3270530910478985</v>
       </c>
     </row>
     <row r="5794">
       <c r="A5794" t="n">
-        <v>0.1740793176111732</v>
+        <v>0.3784704006225963</v>
       </c>
       <c r="B5794" t="n">
-        <v>0.3859986279835052</v>
+        <v>0.2881878697967877</v>
       </c>
       <c r="C5794" t="n">
-        <v>0.4399220544053217</v>
+        <v>0.3333417295806162</v>
       </c>
     </row>
     <row r="5795">
       <c r="A5795" t="n">
-        <v>0.1551050773080489</v>
+        <v>0.3019421124643165</v>
       </c>
       <c r="B5795" t="n">
-        <v>0.3501663604420144</v>
+        <v>0.2797490751845408</v>
       </c>
       <c r="C5795" t="n">
-        <v>0.4947285622499367</v>
+        <v>0.4183088123511426</v>
       </c>
     </row>
     <row r="5796">
       <c r="A5796" t="n">
-        <v>0.4243420512257555</v>
+        <v>0.8095758280366215</v>
       </c>
       <c r="B5796" t="n">
-        <v>0.4003979856393494</v>
+        <v>0.1330962793502528</v>
       </c>
       <c r="C5796" t="n">
-        <v>0.175259963134895</v>
+        <v>0.05732789261312583</v>
       </c>
     </row>
     <row r="5797">
       <c r="A5797" t="n">
-        <v>0.2040114159318781</v>
+        <v>0.4761786560641524</v>
       </c>
       <c r="B5797" t="n">
-        <v>0.4153341218129556</v>
+        <v>0.2749795946378067</v>
       </c>
       <c r="C5797" t="n">
-        <v>0.3806544622551663</v>
+        <v>0.2488417492980409</v>
       </c>
     </row>
     <row r="5798">
       <c r="A5798" t="n">
-        <v>0.1818664229796752</v>
+        <v>0.4060330601714421</v>
       </c>
       <c r="B5798" t="n">
-        <v>0.3985204624545731</v>
+        <v>0.2890679699473172</v>
       </c>
       <c r="C5798" t="n">
-        <v>0.4196131145657517</v>
+        <v>0.3048989698812408</v>
       </c>
     </row>
     <row r="5799">
       <c r="A5799" t="n">
-        <v>0.2990540147551675</v>
+        <v>0.6750488077558444</v>
       </c>
       <c r="B5799" t="n">
-        <v>0.4580447567769023</v>
+        <v>0.2142535333477949</v>
       </c>
       <c r="C5799" t="n">
-        <v>0.2429012284679302</v>
+        <v>0.1106976588963607</v>
       </c>
     </row>
     <row r="5800">
       <c r="A5800" t="n">
-        <v>0.1471560753664897</v>
+        <v>0.265</v>
       </c>
       <c r="B5800" t="n">
-        <v>0.3412628039098848</v>
+        <v>0.28</v>
       </c>
       <c r="C5800" t="n">
-        <v>0.5115811207236255</v>
+        <v>0.4550000000000001</v>
       </c>
     </row>
     <row r="5801">
       <c r="A5801" t="n">
-        <v>0.3401121201057207</v>
+        <v>0.7307511605196839</v>
       </c>
       <c r="B5801" t="n">
-        <v>0.3927681430084642</v>
+        <v>0.1610960228136436</v>
       </c>
       <c r="C5801" t="n">
-        <v>0.2671197368858151</v>
+        <v>0.1081528166666724</v>
       </c>
     </row>
     <row r="5802">
       <c r="A5802" t="n">
-        <v>0.123261814708985</v>
+        <v>0.1216238490716996</v>
       </c>
       <c r="B5802" t="n">
-        <v>0.2530758546570549</v>
+        <v>0.1865398879175613</v>
       </c>
       <c r="C5802" t="n">
-        <v>0.62366233063396</v>
+        <v>0.691836263010739</v>
       </c>
     </row>
     <row r="5803">
       <c r="A5803" t="n">
-        <v>0.118221948063721</v>
+        <v>0.09868281919636132</v>
       </c>
       <c r="B5803" t="n">
-        <v>0.2411068232574341</v>
+        <v>0.1657158606109146</v>
       </c>
       <c r="C5803" t="n">
-        <v>0.640671228678845</v>
+        <v>0.7356013201927241</v>
       </c>
     </row>
     <row r="5804">
       <c r="A5804" t="n">
-        <v>0.2070614285036231</v>
+        <v>0.4743163937676083</v>
       </c>
       <c r="B5804" t="n">
-        <v>0.4367096581995629</v>
+        <v>0.2923474592580766</v>
       </c>
       <c r="C5804" t="n">
-        <v>0.356228913296814</v>
+        <v>0.233336146974315</v>
       </c>
     </row>
     <row r="5805">
       <c r="A5805" t="n">
-        <v>0.2016878201610658</v>
+        <v>0.4587717695761791</v>
       </c>
       <c r="B5805" t="n">
-        <v>0.4117645820538747</v>
+        <v>0.2804592182839855</v>
       </c>
       <c r="C5805" t="n">
-        <v>0.3865475977850595</v>
+        <v>0.2607690121398353</v>
       </c>
     </row>
     <row r="5806">
       <c r="A5806" t="n">
-        <v>0.1332222334154286</v>
+        <v>0.1803839324559555</v>
       </c>
       <c r="B5806" t="n">
-        <v>0.2834780341950842</v>
+        <v>0.2281117000734421</v>
       </c>
       <c r="C5806" t="n">
-        <v>0.5832997323894873</v>
+        <v>0.5915043674706024</v>
       </c>
     </row>
     <row r="5807">
       <c r="A5807" t="n">
-        <v>0.1309869552622277</v>
+        <v>0.1704199148177191</v>
       </c>
       <c r="B5807" t="n">
-        <v>0.2857439062533497</v>
+        <v>0.2302935252241032</v>
       </c>
       <c r="C5807" t="n">
-        <v>0.5832691384844225</v>
+        <v>0.5992865599581777</v>
       </c>
     </row>
     <row r="5808">
       <c r="A5808" t="n">
-        <v>0.418180844976099</v>
+        <v>0.8005598255305846</v>
       </c>
       <c r="B5808" t="n">
-        <v>0.388924229778042</v>
+        <v>0.1339530364835348</v>
       </c>
       <c r="C5808" t="n">
-        <v>0.192894925245859</v>
+        <v>0.0654871379858806</v>
       </c>
     </row>
     <row r="5809">
       <c r="A5809" t="n">
-        <v>0.2350983150887066</v>
+        <v>0.547262997623389</v>
       </c>
       <c r="B5809" t="n">
-        <v>0.4334442881163995</v>
+        <v>0.2588306890860732</v>
       </c>
       <c r="C5809" t="n">
-        <v>0.3314573967948938</v>
+        <v>0.1939063132905378</v>
       </c>
     </row>
     <row r="5810">
       <c r="A5810" t="n">
-        <v>0.1874183993994561</v>
+        <v>0.4131195811788972</v>
       </c>
       <c r="B5810" t="n">
-        <v>0.391459995963038</v>
+        <v>0.2822481226156553</v>
       </c>
       <c r="C5810" t="n">
-        <v>0.4211216046375058</v>
+        <v>0.3046322962054473</v>
       </c>
     </row>
     <row r="5811">
       <c r="A5811" t="n">
-        <v>0.2806918297705167</v>
+        <v>0.6384032053127355</v>
       </c>
       <c r="B5811" t="n">
-        <v>0.4252338061278984</v>
+        <v>0.2154135815545577</v>
       </c>
       <c r="C5811" t="n">
-        <v>0.2940743641015849</v>
+        <v>0.1461832131327067</v>
       </c>
     </row>
     <row r="5812">
       <c r="A5812" t="n">
-        <v>0.2459354168310049</v>
+        <v>0.5713332952054837</v>
       </c>
       <c r="B5812" t="n">
-        <v>0.4370205031771562</v>
+        <v>0.2506845354125316</v>
       </c>
       <c r="C5812" t="n">
-        <v>0.3170440799918388</v>
+        <v>0.1779821693819847</v>
       </c>
     </row>
     <row r="5813">
       <c r="A5813" t="n">
-        <v>0.2454635331183994</v>
+        <v>0.5700490822850073</v>
       </c>
       <c r="B5813" t="n">
-        <v>0.4525958088730069</v>
+        <v>0.2606525056712725</v>
       </c>
       <c r="C5813" t="n">
-        <v>0.3019406580085938</v>
+        <v>0.1692984120437203</v>
       </c>
     </row>
     <row r="5814">
       <c r="A5814" t="n">
-        <v>0.1644867681129987</v>
+        <v>0.3175702337218358</v>
       </c>
       <c r="B5814" t="n">
-        <v>0.3610392943628503</v>
+        <v>0.2885994696285678</v>
       </c>
       <c r="C5814" t="n">
-        <v>0.4744739375241511</v>
+        <v>0.3938302966495966</v>
       </c>
     </row>
     <row r="5815">
       <c r="A5815" t="n">
-        <v>0.2165134910516748</v>
+        <v>0.5010931944308606</v>
       </c>
       <c r="B5815" t="n">
-        <v>0.4051069672408338</v>
+        <v>0.2589466842923893</v>
       </c>
       <c r="C5815" t="n">
-        <v>0.3783795417074915</v>
+        <v>0.2399601212767501</v>
       </c>
     </row>
     <row r="5816">
       <c r="A5816" t="n">
-        <v>0.1668884128907717</v>
+        <v>0.3399352136483711</v>
       </c>
       <c r="B5816" t="n">
-        <v>0.3743257239927019</v>
+        <v>0.2918376330667033</v>
       </c>
       <c r="C5816" t="n">
-        <v>0.4587858631165264</v>
+        <v>0.3682271532849256</v>
       </c>
     </row>
     <row r="5817">
       <c r="A5817" t="n">
-        <v>0.1316028059239504</v>
+        <v>0.1792610756481246</v>
       </c>
       <c r="B5817" t="n">
-        <v>0.3053682755105109</v>
+        <v>0.2536060899239361</v>
       </c>
       <c r="C5817" t="n">
-        <v>0.5630289185655386</v>
+        <v>0.5671328344279394</v>
       </c>
     </row>
     <row r="5818">
       <c r="A5818" t="n">
-        <v>0.1980433115746062</v>
+        <v>0.4376028984098773</v>
       </c>
       <c r="B5818" t="n">
-        <v>0.4134321773006678</v>
+        <v>0.291148863062652</v>
       </c>
       <c r="C5818" t="n">
-        <v>0.388524511124726</v>
+        <v>0.2712482385274708</v>
       </c>
     </row>
     <row r="5819">
       <c r="A5819" t="n">
-        <v>0.2318772835242829</v>
+        <v>0.5295910108079799</v>
       </c>
       <c r="B5819" t="n">
-        <v>0.4566838696137446</v>
+        <v>0.2830706724436192</v>
       </c>
       <c r="C5819" t="n">
-        <v>0.3114388468619726</v>
+        <v>0.187338316748401</v>
       </c>
     </row>
     <row r="5820">
       <c r="A5820" t="n">
-        <v>0.2890639689963178</v>
+        <v>0.6448214739508973</v>
       </c>
       <c r="B5820" t="n">
-        <v>0.4227648706547751</v>
+        <v>0.2128029615690623</v>
       </c>
       <c r="C5820" t="n">
-        <v>0.288171160348907</v>
+        <v>0.1423755644800404</v>
       </c>
     </row>
     <row r="5821">
       <c r="A5821" t="n">
-        <v>0.1608413270704166</v>
+        <v>0.3144002811942432</v>
       </c>
       <c r="B5821" t="n">
-        <v>0.3493449627749911</v>
+        <v>0.2765460667360735</v>
       </c>
       <c r="C5821" t="n">
-        <v>0.4898137101545924</v>
+        <v>0.4090536520696833</v>
       </c>
     </row>
     <row r="5822">
       <c r="A5822" t="n">
-        <v>0.145778171083589</v>
+        <v>0.2593037897534224</v>
       </c>
       <c r="B5822" t="n">
-        <v>0.3493680782132815</v>
+        <v>0.2893379780823261</v>
       </c>
       <c r="C5822" t="n">
-        <v>0.5048537507031295</v>
+        <v>0.4513582321642516</v>
       </c>
     </row>
     <row r="5823">
       <c r="A5823" t="n">
-        <v>0.1313132421030091</v>
+        <v>0.1911343073113497</v>
       </c>
       <c r="B5823" t="n">
-        <v>0.3342704978241838</v>
+        <v>0.2839388631886391</v>
       </c>
       <c r="C5823" t="n">
-        <v>0.5344162600728071</v>
+        <v>0.5249268295000111</v>
       </c>
     </row>
     <row r="5824">
       <c r="A5824" t="n">
-        <v>0.2128487333383987</v>
+        <v>0.5004878059516269</v>
       </c>
       <c r="B5824" t="n">
-        <v>0.4376320314158599</v>
+        <v>0.2804185915186598</v>
       </c>
       <c r="C5824" t="n">
-        <v>0.3495192352457414</v>
+        <v>0.2190936025297134</v>
       </c>
     </row>
     <row r="5825">
       <c r="A5825" t="n">
-        <v>0.1956196836933117</v>
+        <v>0.4507368118691844</v>
       </c>
       <c r="B5825" t="n">
-        <v>0.4317528535389745</v>
+        <v>0.2973289544414281</v>
       </c>
       <c r="C5825" t="n">
-        <v>0.3726274627677137</v>
+        <v>0.2519342336893875</v>
       </c>
     </row>
     <row r="5826">
       <c r="A5826" t="n">
-        <v>0.2962041139150656</v>
+        <v>0.6714619339666323</v>
       </c>
       <c r="B5826" t="n">
-        <v>0.4220013527551784</v>
+        <v>0.1983288937033518</v>
       </c>
       <c r="C5826" t="n">
-        <v>0.281794533329756</v>
+        <v>0.1302091723300159</v>
       </c>
     </row>
     <row r="5827">
       <c r="A5827" t="n">
-        <v>0.1852470982623932</v>
+        <v>0.4177592927557155</v>
       </c>
       <c r="B5827" t="n">
-        <v>0.3920849545111746</v>
+        <v>0.2797855998388134</v>
       </c>
       <c r="C5827" t="n">
-        <v>0.422667947226432</v>
+        <v>0.3024551074054711</v>
       </c>
     </row>
     <row r="5828">
       <c r="A5828" t="n">
-        <v>0.1559870812375475</v>
+        <v>0.3045091963022078</v>
       </c>
       <c r="B5828" t="n">
-        <v>0.3519975924290666</v>
+        <v>0.280449574878427</v>
       </c>
       <c r="C5828" t="n">
-        <v>0.4920153263333859</v>
+        <v>0.4150412288193651</v>
       </c>
     </row>
     <row r="5829">
       <c r="A5829" t="n">
-        <v>0.3617916099846931</v>
+        <v>0.7541933092532513</v>
       </c>
       <c r="B5829" t="n">
-        <v>0.4246296242705013</v>
+        <v>0.1645826016193898</v>
       </c>
       <c r="C5829" t="n">
-        <v>0.2135787657448057</v>
+        <v>0.08122408912735889</v>
       </c>
     </row>
     <row r="5830">
       <c r="A5830" t="n">
-        <v>0.4524206900186175</v>
+        <v>0.8304061632180164</v>
       </c>
       <c r="B5830" t="n">
-        <v>0.3752872575035762</v>
+        <v>0.1167075490630424</v>
       </c>
       <c r="C5830" t="n">
-        <v>0.1722920524778064</v>
+        <v>0.05288628771894131</v>
       </c>
     </row>
     <row r="5831">
       <c r="A5831" t="n">
-        <v>0.2138133041539658</v>
+        <v>0.5039153121722211</v>
       </c>
       <c r="B5831" t="n">
-        <v>0.4250659699348303</v>
+        <v>0.2701984018560064</v>
       </c>
       <c r="C5831" t="n">
-        <v>0.3611207259112039</v>
+        <v>0.2258862859717726</v>
       </c>
     </row>
     <row r="5832">
       <c r="A5832" t="n">
-        <v>0.1213010697541598</v>
+        <v>0.07927667856123023</v>
       </c>
       <c r="B5832" t="n">
-        <v>0.2231203892048771</v>
+        <v>0.1340131442840783</v>
       </c>
       <c r="C5832" t="n">
-        <v>0.6555785410409631</v>
+        <v>0.7867101771546914</v>
       </c>
     </row>
     <row r="5833">
       <c r="A5833" t="n">
-        <v>0.2290117603097531</v>
+        <v>0.5319426083045052</v>
       </c>
       <c r="B5833" t="n">
-        <v>0.4567009293782683</v>
+        <v>0.2805256660743856</v>
       </c>
       <c r="C5833" t="n">
-        <v>0.3142873103119785</v>
+        <v>0.1875317256211091</v>
       </c>
     </row>
     <row r="5834">
       <c r="A5834" t="n">
-        <v>0.1675432932929163</v>
+        <v>0.3428034881561752</v>
       </c>
       <c r="B5834" t="n">
-        <v>0.3802231383917744</v>
+        <v>0.296440721315381</v>
       </c>
       <c r="C5834" t="n">
-        <v>0.4522335683153094</v>
+        <v>0.3607557905284437</v>
       </c>
     </row>
     <row r="5835">
       <c r="A5835" t="n">
-        <v>0.2964589716586132</v>
+        <v>0.6644298398427284</v>
       </c>
       <c r="B5835" t="n">
-        <v>0.4448969377774126</v>
+        <v>0.2140776172915695</v>
       </c>
       <c r="C5835" t="n">
-        <v>0.2586440905639741</v>
+        <v>0.1214925428657022</v>
       </c>
     </row>
     <row r="5836">
       <c r="A5836" t="n">
-        <v>0.2104371060500962</v>
+        <v>0.4742840924660886</v>
       </c>
       <c r="B5836" t="n">
-        <v>0.3976487121013523</v>
+        <v>0.2654250425727652</v>
       </c>
       <c r="C5836" t="n">
-        <v>0.3919141818485516</v>
+        <v>0.2602908649611462</v>
       </c>
     </row>
     <row r="5837">
       <c r="A5837" t="n">
-        <v>0.2014818310386363</v>
+        <v>0.4591483761229023</v>
       </c>
       <c r="B5837" t="n">
-        <v>0.4089308940069882</v>
+        <v>0.2780043026981532</v>
       </c>
       <c r="C5837" t="n">
-        <v>0.3895872749543755</v>
+        <v>0.2628473211789445</v>
       </c>
     </row>
     <row r="5838">
       <c r="A5838" t="n">
-        <v>0.2821022422776563</v>
+        <v>0.6402919158784798</v>
       </c>
       <c r="B5838" t="n">
-        <v>0.449691870652975</v>
+        <v>0.2274357139309021</v>
       </c>
       <c r="C5838" t="n">
-        <v>0.2682058870693688</v>
+        <v>0.1322723701906183</v>
       </c>
     </row>
     <row r="5839">
       <c r="A5839" t="n">
-        <v>0.1298551142099952</v>
+        <v>0.1682820106051227</v>
       </c>
       <c r="B5839" t="n">
-        <v>0.2930954211492269</v>
+        <v>0.2381571335271675</v>
       </c>
       <c r="C5839" t="n">
-        <v>0.5770494646407779</v>
+        <v>0.5935608558677099</v>
       </c>
     </row>
     <row r="5840">
       <c r="A5840" t="n">
-        <v>0.1272972167410554</v>
+        <v>0.1504670350501831</v>
       </c>
       <c r="B5840" t="n">
-        <v>0.2734965987421194</v>
+        <v>0.2165847486567519</v>
       </c>
       <c r="C5840" t="n">
-        <v>0.5992061845168252</v>
+        <v>0.6329482162930651</v>
       </c>
     </row>
     <row r="5841">
       <c r="A5841" t="n">
-        <v>0.180041758437028</v>
+        <v>0.3886626289258566</v>
       </c>
       <c r="B5841" t="n">
-        <v>0.3921622266178472</v>
+        <v>0.2917417214607185</v>
       </c>
       <c r="C5841" t="n">
-        <v>0.4277960149451249</v>
+        <v>0.3195956496134251</v>
       </c>
     </row>
     <row r="5842">
       <c r="A5842" t="n">
-        <v>0.1517042677076035</v>
+        <v>0.2771278733915138</v>
       </c>
       <c r="B5842" t="n">
-        <v>0.3460043676542387</v>
+        <v>0.2825537739963404</v>
       </c>
       <c r="C5842" t="n">
-        <v>0.5022913646381579</v>
+        <v>0.4403183526121458</v>
       </c>
     </row>
     <row r="5843">
       <c r="A5843" t="n">
-        <v>0.2254807108452262</v>
+        <v>0.5239790357546936</v>
       </c>
       <c r="B5843" t="n">
-        <v>0.4442542089444002</v>
+        <v>0.2758573464345168</v>
       </c>
       <c r="C5843" t="n">
-        <v>0.3302650802103736</v>
+        <v>0.2001636178107895</v>
       </c>
     </row>
     <row r="5844">
       <c r="A5844" t="n">
-        <v>0.1521811113181205</v>
+        <v>0.2798557374650585</v>
       </c>
       <c r="B5844" t="n">
-        <v>0.3614797205419127</v>
+        <v>0.298013215796983</v>
       </c>
       <c r="C5844" t="n">
-        <v>0.4863391681399667</v>
+        <v>0.4221310467379584</v>
       </c>
     </row>
     <row r="5845">
       <c r="A5845" t="n">
-        <v>0.2627591439208144</v>
+        <v>0.6059764562762846</v>
       </c>
       <c r="B5845" t="n">
-        <v>0.4195670201316231</v>
+        <v>0.2257651957132222</v>
       </c>
       <c r="C5845" t="n">
-        <v>0.3176738359475624</v>
+        <v>0.1682583480104932</v>
       </c>
     </row>
     <row r="5846">
       <c r="A5846" t="n">
-        <v>0.4716888697408506</v>
+        <v>0.8392429413913781</v>
       </c>
       <c r="B5846" t="n">
-        <v>0.3639200758612379</v>
+        <v>0.1111644444476705</v>
       </c>
       <c r="C5846" t="n">
-        <v>0.1643910543979116</v>
+        <v>0.04959261416095145</v>
       </c>
     </row>
     <row r="5847">
       <c r="A5847" t="n">
-        <v>0.1681407616030788</v>
+        <v>0.3451464858674728</v>
       </c>
       <c r="B5847" t="n">
-        <v>0.3921997186129694</v>
+        <v>0.306593860924097</v>
       </c>
       <c r="C5847" t="n">
-        <v>0.4396595197839518</v>
+        <v>0.3482596532084302</v>
       </c>
     </row>
     <row r="5848">
       <c r="A5848" t="n">
-        <v>0.1414490746649456</v>
+        <v>0.2244902851076181</v>
       </c>
       <c r="B5848" t="n">
-        <v>0.3111567393015855</v>
+        <v>0.2581187896979701</v>
       </c>
       <c r="C5848" t="n">
-        <v>0.5473941860334689</v>
+        <v>0.5173909251944119</v>
       </c>
     </row>
     <row r="5849">
       <c r="A5849" t="n">
-        <v>0.1836531847354836</v>
+        <v>0.4019282897900442</v>
       </c>
       <c r="B5849" t="n">
-        <v>0.3736392379101219</v>
+        <v>0.27134877029018</v>
       </c>
       <c r="C5849" t="n">
-        <v>0.4427075773543945</v>
+        <v>0.3267229399197759</v>
       </c>
     </row>
     <row r="5850">
       <c r="A5850" t="n">
-        <v>0.2729387142374602</v>
+        <v>0.6238698535162592</v>
       </c>
       <c r="B5850" t="n">
-        <v>0.4502864687248342</v>
+        <v>0.2352171647388818</v>
       </c>
       <c r="C5850" t="n">
-        <v>0.2767748170377056</v>
+        <v>0.1409129817448589</v>
       </c>
     </row>
     <row r="5851">
       <c r="A5851" t="n">
-        <v>0.4507587578833884</v>
+        <v>0.8247924692996351</v>
       </c>
       <c r="B5851" t="n">
-        <v>0.3850231056920609</v>
+        <v>0.1233663949807147</v>
       </c>
       <c r="C5851" t="n">
-        <v>0.1642181364245506</v>
+        <v>0.05184113571965023</v>
       </c>
     </row>
     <row r="5852">
       <c r="A5852" t="n">
-        <v>0.1991609274975502</v>
+        <v>0.4627526648911716</v>
       </c>
       <c r="B5852" t="n">
-        <v>0.4167545543227714</v>
+        <v>0.2810293556127406</v>
       </c>
       <c r="C5852" t="n">
-        <v>0.3840845181796785</v>
+        <v>0.2562179794960879</v>
       </c>
     </row>
     <row r="5853">
       <c r="A5853" t="n">
-        <v>0.1570428153751871</v>
+        <v>0.3112869797047184</v>
       </c>
       <c r="B5853" t="n">
-        <v>0.362865107484686</v>
+        <v>0.2891634806466252</v>
       </c>
       <c r="C5853" t="n">
-        <v>0.4800920771401268</v>
+        <v>0.3995495396486564</v>
       </c>
     </row>
     <row r="5854">
       <c r="A5854" t="n">
-        <v>0.2655229698858068</v>
+        <v>0.6196644699416493</v>
       </c>
       <c r="B5854" t="n">
-        <v>0.449330966985069</v>
+        <v>0.234862662051898</v>
       </c>
       <c r="C5854" t="n">
-        <v>0.2851460631291242</v>
+        <v>0.1454728680064527</v>
       </c>
     </row>
     <row r="5855">
       <c r="A5855" t="n">
-        <v>0.1401677233015068</v>
+        <v>0.2331844085058781</v>
       </c>
       <c r="B5855" t="n">
-        <v>0.3219982030682082</v>
+        <v>0.267450878887056</v>
       </c>
       <c r="C5855" t="n">
-        <v>0.5378340736302849</v>
+        <v>0.4993647126070659</v>
       </c>
     </row>
     <row r="5856">
       <c r="A5856" t="n">
-        <v>0.1154124483217608</v>
+        <v>0.07906333992220974</v>
       </c>
       <c r="B5856" t="n">
-        <v>0.2336324599447621</v>
+        <v>0.15051652485711</v>
       </c>
       <c r="C5856" t="n">
-        <v>0.650955091733477</v>
+        <v>0.7704201352206803</v>
       </c>
     </row>
     <row r="5857">
       <c r="A5857" t="n">
-        <v>0.1787131552556965</v>
+        <v>0.3739014710051344</v>
       </c>
       <c r="B5857" t="n">
-        <v>0.4073349208648879</v>
+        <v>0.3108482691277916</v>
       </c>
       <c r="C5857" t="n">
-        <v>0.4139519238794155</v>
+        <v>0.3152502598670741</v>
       </c>
     </row>
     <row r="5858">
       <c r="A5858" t="n">
-        <v>0.1573797629580548</v>
+        <v>0.3031979717218556</v>
       </c>
       <c r="B5858" t="n">
-        <v>0.3748011769548647</v>
+        <v>0.3036759506578334</v>
       </c>
       <c r="C5858" t="n">
-        <v>0.4678190600870805</v>
+        <v>0.3931260776203109</v>
       </c>
     </row>
     <row r="5859">
       <c r="A5859" t="n">
-        <v>0.2947388314533742</v>
+        <v>0.6610741991759771</v>
       </c>
       <c r="B5859" t="n">
-        <v>0.4575785563500624</v>
+        <v>0.2219665194313501</v>
       </c>
       <c r="C5859" t="n">
-        <v>0.2476826121965634</v>
+        <v>0.1169592813926729</v>
       </c>
     </row>
     <row r="5860">
       <c r="A5860" t="n">
-        <v>0.1128710274375668</v>
+        <v>0.04688980277116517</v>
       </c>
       <c r="B5860" t="n">
-        <v>0.2193441674287962</v>
+        <v>0.09979902312990899</v>
       </c>
       <c r="C5860" t="n">
-        <v>0.667784805133637</v>
+        <v>0.8533111740989259</v>
       </c>
     </row>
     <row r="5861">
       <c r="A5861" t="n">
-        <v>0.2249931865467219</v>
+        <v>0.5236257947166579</v>
       </c>
       <c r="B5861" t="n">
-        <v>0.4156559935219178</v>
+        <v>0.2571543048786434</v>
       </c>
       <c r="C5861" t="n">
-        <v>0.3593508199313602</v>
+        <v>0.2192199004046987</v>
       </c>
     </row>
     <row r="5862">
       <c r="A5862" t="n">
-        <v>0.3024987919671939</v>
+        <v>0.6734391951869021</v>
       </c>
       <c r="B5862" t="n">
-        <v>0.430494604343687</v>
+        <v>0.2030969523621659</v>
       </c>
       <c r="C5862" t="n">
-        <v>0.2670066036891193</v>
+        <v>0.1234638524509321</v>
       </c>
     </row>
     <row r="5863">
       <c r="A5863" t="n">
-        <v>0.1777178886943586</v>
+        <v>0.3804546640297843</v>
       </c>
       <c r="B5863" t="n">
-        <v>0.3775354112159951</v>
+        <v>0.281955674951376</v>
       </c>
       <c r="C5863" t="n">
-        <v>0.4447467000896462</v>
+        <v>0.3375896610188396</v>
       </c>
     </row>
     <row r="5864">
       <c r="A5864" t="n">
-        <v>0.1202737581667274</v>
+        <v>0.1166093664631571</v>
       </c>
       <c r="B5864" t="n">
-        <v>0.2781413903562221</v>
+        <v>0.2133602482792823</v>
       </c>
       <c r="C5864" t="n">
-        <v>0.6015848514770505</v>
+        <v>0.6700303852575605</v>
       </c>
     </row>
     <row r="5865">
       <c r="A5865" t="n">
-        <v>0.2594807254327272</v>
+        <v>0.5998767236889458</v>
       </c>
       <c r="B5865" t="n">
-        <v>0.4277951967466647</v>
+        <v>0.2329899926011861</v>
       </c>
       <c r="C5865" t="n">
-        <v>0.3127240778206081</v>
+        <v>0.1671332837098682</v>
       </c>
     </row>
     <row r="5866">
       <c r="A5866" t="n">
-        <v>0.3272179999532679</v>
+        <v>0.7012957326147606</v>
       </c>
       <c r="B5866" t="n">
-        <v>0.4181006186631651</v>
+        <v>0.1869212361249459</v>
       </c>
       <c r="C5866" t="n">
-        <v>0.2546813813835669</v>
+        <v>0.1117830312602934</v>
       </c>
     </row>
     <row r="5867">
       <c r="A5867" t="n">
-        <v>0.233674139830982</v>
+        <v>0.5544511715695882</v>
       </c>
       <c r="B5867" t="n">
-        <v>0.4229231841261414</v>
+        <v>0.2476120418721327</v>
       </c>
       <c r="C5867" t="n">
-        <v>0.3434026760428767</v>
+        <v>0.1979367865582789</v>
       </c>
     </row>
     <row r="5868">
       <c r="A5868" t="n">
-        <v>0.1403750860618712</v>
+        <v>0.2420587911179679</v>
       </c>
       <c r="B5868" t="n">
-        <v>0.3296337315052882</v>
+        <v>0.2713785883519753</v>
       </c>
       <c r="C5868" t="n">
-        <v>0.5299911824328405</v>
+        <v>0.4865626205300567</v>
       </c>
     </row>
     <row r="5869">
       <c r="A5869" t="n">
-        <v>0.3739523053825808</v>
+        <v>0.7653551456287411</v>
       </c>
       <c r="B5869" t="n">
-        <v>0.431413269380392</v>
+        <v>0.1626997599665704</v>
       </c>
       <c r="C5869" t="n">
-        <v>0.1946344252370273</v>
+        <v>0.07194509440468856</v>
       </c>
     </row>
     <row r="5870">
       <c r="A5870" t="n">
-        <v>0.6040909637726724</v>
+        <v>0.9074617274339032</v>
       </c>
       <c r="B5870" t="n">
-        <v>0.2904607528042243</v>
+        <v>0.06803826746414739</v>
       </c>
       <c r="C5870" t="n">
-        <v>0.1054482834231032</v>
+        <v>0.0245000051019495</v>
       </c>
     </row>
     <row r="5871">
       <c r="A5871" t="n">
-        <v>0.289381424502025</v>
+        <v>0.6606659486598018</v>
       </c>
       <c r="B5871" t="n">
-        <v>0.4303343753216721</v>
+        <v>0.2070496794689565</v>
       </c>
       <c r="C5871" t="n">
-        <v>0.2802842001763027</v>
+        <v>0.1322843718712417</v>
       </c>
     </row>
     <row r="5872">
       <c r="A5872" t="n">
-        <v>0.122082972732668</v>
+        <v>0.1122317076826344</v>
       </c>
       <c r="B5872" t="n">
-        <v>0.2659976199259483</v>
+        <v>0.1975969894508301</v>
       </c>
       <c r="C5872" t="n">
-        <v>0.6119194073413836</v>
+        <v>0.6901713028665355</v>
       </c>
     </row>
     <row r="5873">
       <c r="A5873" t="n">
-        <v>0.2000130081780586</v>
+        <v>0.4641865351785459</v>
       </c>
       <c r="B5873" t="n">
-        <v>0.4045407903908007</v>
+        <v>0.2716818099522041</v>
       </c>
       <c r="C5873" t="n">
-        <v>0.3954462014311408</v>
+        <v>0.26413165486925</v>
       </c>
     </row>
     <row r="5874">
       <c r="A5874" t="n">
-        <v>0.1303035836623016</v>
+        <v>0.1843723047513298</v>
       </c>
       <c r="B5874" t="n">
-        <v>0.3033408925874064</v>
+        <v>0.251358504999966</v>
       </c>
       <c r="C5874" t="n">
-        <v>0.566355523750292</v>
+        <v>0.5642691902487041</v>
       </c>
     </row>
     <row r="5875">
       <c r="A5875" t="n">
-        <v>0.1742304359631563</v>
+        <v>0.3786556355830681</v>
       </c>
       <c r="B5875" t="n">
-        <v>0.4019043206467858</v>
+        <v>0.3019384260821235</v>
       </c>
       <c r="C5875" t="n">
-        <v>0.4238652433900579</v>
+        <v>0.3194059383348084</v>
       </c>
     </row>
     <row r="5876">
       <c r="A5876" t="n">
-        <v>0.1593306817786108</v>
+        <v>0.3183951977607763</v>
       </c>
       <c r="B5876" t="n">
-        <v>0.3412578180238095</v>
+        <v>0.2668231098908952</v>
       </c>
       <c r="C5876" t="n">
-        <v>0.4994115001975796</v>
+        <v>0.4147816923483284</v>
       </c>
     </row>
     <row r="5877">
       <c r="A5877" t="n">
-        <v>0.339182170883602</v>
+        <v>0.7225712192154401</v>
       </c>
       <c r="B5877" t="n">
-        <v>0.4186437200294664</v>
+        <v>0.1769878614816482</v>
       </c>
       <c r="C5877" t="n">
-        <v>0.2421741090869316</v>
+        <v>0.1004409193029117</v>
       </c>
     </row>
     <row r="5878">
       <c r="A5878" t="n">
-        <v>0.2482968905303208</v>
+        <v>0.5851346715570007</v>
       </c>
       <c r="B5878" t="n">
-        <v>0.4439876696460137</v>
+        <v>0.2473455699579124</v>
       </c>
       <c r="C5878" t="n">
-        <v>0.3077154398236656</v>
+        <v>0.167519758485087</v>
       </c>
     </row>
     <row r="5879">
       <c r="A5879" t="n">
-        <v>0.1902059082894255</v>
+        <v>0.4235473805522441</v>
       </c>
       <c r="B5879" t="n">
-        <v>0.4080610102680882</v>
+        <v>0.2910956607415373</v>
       </c>
       <c r="C5879" t="n">
-        <v>0.4017330814424864</v>
+        <v>0.2853569587062187</v>
       </c>
     </row>
     <row r="5880">
       <c r="A5880" t="n">
-        <v>0.214735095336679</v>
+        <v>0.5064669798734346</v>
       </c>
       <c r="B5880" t="n">
-        <v>0.43002601922039</v>
+        <v>0.2724377253958842</v>
       </c>
       <c r="C5880" t="n">
-        <v>0.355238885442931</v>
+        <v>0.2210952947306813</v>
       </c>
     </row>
     <row r="5881">
       <c r="A5881" t="n">
-        <v>0.1352706873946093</v>
+        <v>0.2043183135784458</v>
       </c>
       <c r="B5881" t="n">
-        <v>0.2984341811067418</v>
+        <v>0.2442168286298251</v>
       </c>
       <c r="C5881" t="n">
-        <v>0.5662951314986489</v>
+        <v>0.5514648577917289</v>
       </c>
     </row>
     <row r="5882">
       <c r="A5882" t="n">
-        <v>0.3061193219480835</v>
+        <v>0.6862486075319404</v>
       </c>
       <c r="B5882" t="n">
-        <v>0.4194288721674278</v>
+        <v>0.1908891072156901</v>
       </c>
       <c r="C5882" t="n">
-        <v>0.2744518058844887</v>
+        <v>0.1228622852523695</v>
       </c>
     </row>
     <row r="5883">
       <c r="A5883" t="n">
-        <v>0.1713570497724038</v>
+        <v>0.3686137475260474</v>
       </c>
       <c r="B5883" t="n">
-        <v>0.3999120098049333</v>
+        <v>0.3040772712241684</v>
       </c>
       <c r="C5883" t="n">
-        <v>0.4287309404226629</v>
+        <v>0.327308981249784</v>
       </c>
     </row>
     <row r="5884">
       <c r="A5884" t="n">
-        <v>0.4079458537896932</v>
+        <v>0.7966764650848899</v>
       </c>
       <c r="B5884" t="n">
-        <v>0.4024214878032813</v>
+        <v>0.1389106390540032</v>
       </c>
       <c r="C5884" t="n">
-        <v>0.1896326584070254</v>
+        <v>0.06441289586110685</v>
       </c>
     </row>
     <row r="5885">
       <c r="A5885" t="n">
-        <v>0.1167480822787413</v>
+        <v>0.09193207174146273</v>
       </c>
       <c r="B5885" t="n">
-        <v>0.2520561160992311</v>
+        <v>0.1731961639435113</v>
       </c>
       <c r="C5885" t="n">
-        <v>0.6311958016220276</v>
+        <v>0.7348717643150259</v>
       </c>
     </row>
     <row r="5886">
       <c r="A5886" t="n">
-        <v>0.2452936557780933</v>
+        <v>0.5803829930095965</v>
       </c>
       <c r="B5886" t="n">
-        <v>0.4218712931751822</v>
+        <v>0.236241070864676</v>
       </c>
       <c r="C5886" t="n">
-        <v>0.3328350510467244</v>
+        <v>0.1833759361257275</v>
       </c>
     </row>
     <row r="5887">
       <c r="A5887" t="n">
-        <v>0.1586136685320722</v>
+        <v>0.3050342692119358</v>
       </c>
       <c r="B5887" t="n">
-        <v>0.3288453378536067</v>
+        <v>0.2591696012648987</v>
       </c>
       <c r="C5887" t="n">
-        <v>0.5125409936143211</v>
+        <v>0.4357961295231655</v>
       </c>
     </row>
     <row r="5888">
       <c r="A5888" t="n">
-        <v>0.2132964348893299</v>
+        <v>0.4811172468004202</v>
       </c>
       <c r="B5888" t="n">
-        <v>0.4445484438535249</v>
+        <v>0.2964881960354148</v>
       </c>
       <c r="C5888" t="n">
-        <v>0.3421551212571452</v>
+        <v>0.2223945571641651</v>
       </c>
     </row>
     <row r="5889">
       <c r="A5889" t="n">
-        <v>0.2551080115644981</v>
+        <v>0.5823402041943539</v>
       </c>
       <c r="B5889" t="n">
-        <v>0.4005242419224699</v>
+        <v>0.2256710187014378</v>
       </c>
       <c r="C5889" t="n">
-        <v>0.344367746513032</v>
+        <v>0.1919887771042082</v>
       </c>
     </row>
     <row r="5890">
       <c r="A5890" t="n">
-        <v>0.1399291317300432</v>
+        <v>0.2195940711529797</v>
       </c>
       <c r="B5890" t="n">
-        <v>0.3114468391217561</v>
+        <v>0.2569572560715009</v>
       </c>
       <c r="C5890" t="n">
-        <v>0.5486240291482006</v>
+        <v>0.5234486727755192</v>
       </c>
     </row>
     <row r="5891">
       <c r="A5891" t="n">
-        <v>0.3578289276507793</v>
+        <v>0.7493183524710192</v>
       </c>
       <c r="B5891" t="n">
-        <v>0.4076254353110584</v>
+        <v>0.1600505903454263</v>
       </c>
       <c r="C5891" t="n">
-        <v>0.2345456370381623</v>
+        <v>0.09063105718355466</v>
       </c>
     </row>
     <row r="5892">
       <c r="A5892" t="n">
-        <v>0.1757873244088315</v>
+        <v>0.3847369740255292</v>
       </c>
       <c r="B5892" t="n">
-        <v>0.4125890109483081</v>
+        <v>0.3089398873114767</v>
       </c>
       <c r="C5892" t="n">
-        <v>0.4116236646428604</v>
+        <v>0.3063231386629941</v>
       </c>
     </row>
     <row r="5893">
       <c r="A5893" t="n">
-        <v>0.1579614599155352</v>
+        <v>0.3038663346371797</v>
       </c>
       <c r="B5893" t="n">
-        <v>0.3488973745884386</v>
+        <v>0.2790579237416805</v>
       </c>
       <c r="C5893" t="n">
-        <v>0.4931411654960262</v>
+        <v>0.4170757416211398</v>
       </c>
     </row>
     <row r="5894">
       <c r="A5894" t="n">
-        <v>0.2368242706919896</v>
+        <v>0.5496146957059396</v>
       </c>
       <c r="B5894" t="n">
-        <v>0.4659112362929384</v>
+        <v>0.2783660041561018</v>
       </c>
       <c r="C5894" t="n">
-        <v>0.297264493015072</v>
+        <v>0.1720193001379586</v>
       </c>
     </row>
     <row r="5895">
       <c r="A5895" t="n">
-        <v>0.2830072236890522</v>
+        <v>0.6343835571471057</v>
       </c>
       <c r="B5895" t="n">
-        <v>0.4206162407121692</v>
+        <v>0.2160410022846006</v>
       </c>
       <c r="C5895" t="n">
-        <v>0.2963765355987786</v>
+        <v>0.1495754405682938</v>
       </c>
     </row>
     <row r="5896">
       <c r="A5896" t="n">
-        <v>0.1117694223320302</v>
+        <v>0.06173842607475307</v>
       </c>
       <c r="B5896" t="n">
-        <v>0.2400183883780106</v>
+        <v>0.1379740148480732</v>
       </c>
       <c r="C5896" t="n">
-        <v>0.6482121892899593</v>
+        <v>0.8002875590771736</v>
       </c>
     </row>
     <row r="5897">
       <c r="A5897" t="n">
-        <v>0.1545212544396685</v>
+        <v>0.2998857469655887</v>
       </c>
       <c r="B5897" t="n">
-        <v>0.349475570457717</v>
+        <v>0.2793138744684324</v>
       </c>
       <c r="C5897" t="n">
-        <v>0.4960031751026145</v>
+        <v>0.420800378565979</v>
       </c>
     </row>
     <row r="5898">
       <c r="A5898" t="n">
-        <v>0.3927848164513487</v>
+        <v>0.7678331939453101</v>
       </c>
       <c r="B5898" t="n">
-        <v>0.4081780141502573</v>
+        <v>0.1569950254976662</v>
       </c>
       <c r="C5898" t="n">
-        <v>0.1990371693983941</v>
+        <v>0.07517178055702359</v>
       </c>
     </row>
     <row r="5899">
       <c r="A5899" t="n">
-        <v>0.3602371229896819</v>
+        <v>0.7456804420980205</v>
       </c>
       <c r="B5899" t="n">
-        <v>0.4273531561283446</v>
+        <v>0.1710134898200006</v>
       </c>
       <c r="C5899" t="n">
-        <v>0.2124097208819736</v>
+        <v>0.08330606808197874</v>
       </c>
     </row>
     <row r="5900">
       <c r="A5900" t="n">
-        <v>0.1889140641219887</v>
+        <v>0.4295170515768432</v>
       </c>
       <c r="B5900" t="n">
-        <v>0.3984533696944423</v>
+        <v>0.2800476087854817</v>
       </c>
       <c r="C5900" t="n">
-        <v>0.412632566183569</v>
+        <v>0.290435339637675</v>
       </c>
     </row>
     <row r="5901">
       <c r="A5901" t="n">
-        <v>0.1245852578093648</v>
+        <v>0.1395178034896782</v>
       </c>
       <c r="B5901" t="n">
-        <v>0.2641483554772516</v>
+        <v>0.2026422922014417</v>
       </c>
       <c r="C5901" t="n">
-        <v>0.6112663867133836</v>
+        <v>0.6578399043088801</v>
       </c>
     </row>
     <row r="5902">
       <c r="A5902" t="n">
-        <v>0.1651520385593489</v>
+        <v>0.3324109175086242</v>
       </c>
       <c r="B5902" t="n">
-        <v>0.3611296489416375</v>
+        <v>0.2823548875329103</v>
       </c>
       <c r="C5902" t="n">
-        <v>0.4737183124990136</v>
+        <v>0.3852341949584654</v>
       </c>
     </row>
     <row r="5903">
       <c r="A5903" t="n">
-        <v>0.6009856040581634</v>
+        <v>0.9040125705478164</v>
       </c>
       <c r="B5903" t="n">
-        <v>0.288698959894258</v>
+        <v>0.0696064625352518</v>
       </c>
       <c r="C5903" t="n">
-        <v>0.1103154360475787</v>
+        <v>0.02638096691693176</v>
       </c>
     </row>
     <row r="5904">
       <c r="A5904" t="n">
-        <v>0.1864117341149896</v>
+        <v>0.420721580565004</v>
       </c>
       <c r="B5904" t="n">
-        <v>0.427047558181661</v>
+        <v>0.3064047527949579</v>
       </c>
       <c r="C5904" t="n">
-        <v>0.3865407077033494</v>
+        <v>0.272873666640038</v>
       </c>
     </row>
     <row r="5905">
       <c r="A5905" t="n">
-        <v>0.1724844705863875</v>
+        <v>0.3713654313220149</v>
       </c>
       <c r="B5905" t="n">
-        <v>0.3773470814126073</v>
+        <v>0.2836212460782839</v>
       </c>
       <c r="C5905" t="n">
-        <v>0.4501684480010052</v>
+        <v>0.3450133225997013</v>
       </c>
     </row>
     <row r="5906">
       <c r="A5906" t="n">
-        <v>0.1824599520652531</v>
+        <v>0.4075886226765229</v>
       </c>
       <c r="B5906" t="n">
-        <v>0.3746673473126232</v>
+        <v>0.2690729168761797</v>
       </c>
       <c r="C5906" t="n">
-        <v>0.4428727006221237</v>
+        <v>0.3233384604472975</v>
       </c>
     </row>
     <row r="5907">
       <c r="A5907" t="n">
-        <v>0.2161887491530026</v>
+        <v>0.5102255217817622</v>
       </c>
       <c r="B5907" t="n">
-        <v>0.4087387448286471</v>
+        <v>0.2564697436615772</v>
       </c>
       <c r="C5907" t="n">
-        <v>0.3750725060183505</v>
+        <v>0.2333047345566606</v>
       </c>
     </row>
     <row r="5908">
       <c r="A5908" t="n">
-        <v>0.2993878090724952</v>
+        <v>0.6763156258324741</v>
       </c>
       <c r="B5908" t="n">
-        <v>0.4123446895985822</v>
+        <v>0.1916638581659812</v>
       </c>
       <c r="C5908" t="n">
-        <v>0.2882675013289226</v>
+        <v>0.1320205160015446</v>
       </c>
     </row>
     <row r="5909">
       <c r="A5909" t="n">
-        <v>0.1713888550537447</v>
+        <v>0.3690009008242498</v>
       </c>
       <c r="B5909" t="n">
-        <v>0.3925207684006648</v>
+        <v>0.2975568541147142</v>
       </c>
       <c r="C5909" t="n">
-        <v>0.4360903765455905</v>
+        <v>0.3334422450610359</v>
       </c>
     </row>
     <row r="5910">
       <c r="A5910" t="n">
-        <v>0.1120694900547747</v>
+        <v>0.04761541902086291</v>
       </c>
       <c r="B5910" t="n">
-        <v>0.2285812950607001</v>
+        <v>0.1119203015904459</v>
       </c>
       <c r="C5910" t="n">
-        <v>0.6593492148845251</v>
+        <v>0.8404642793886913</v>
       </c>
     </row>
     <row r="5911">
       <c r="A5911" t="n">
-        <v>0.1690157807892901</v>
+        <v>0.3587151926204826</v>
       </c>
       <c r="B5911" t="n">
-        <v>0.3522310929173215</v>
+        <v>0.2652877630312251</v>
       </c>
       <c r="C5911" t="n">
-        <v>0.4787531262933883</v>
+        <v>0.3759970443482923</v>
       </c>
     </row>
     <row r="5912">
       <c r="A5912" t="n">
-        <v>0.1698819386261043</v>
+        <v>0.3619451004832522</v>
       </c>
       <c r="B5912" t="n">
-        <v>0.3704269132232164</v>
+        <v>0.2803627099235275</v>
       </c>
       <c r="C5912" t="n">
-        <v>0.4596911481506794</v>
+        <v>0.3576921895932202</v>
       </c>
     </row>
     <row r="5913">
       <c r="A5913" t="n">
-        <v>0.2520887249900191</v>
+        <v>0.5833935847273809</v>
       </c>
       <c r="B5913" t="n">
-        <v>0.437843553953427</v>
+        <v>0.2461075859332789</v>
       </c>
       <c r="C5913" t="n">
-        <v>0.310067721056554</v>
+        <v>0.1704988293393402</v>
       </c>
     </row>
     <row r="5914">
       <c r="A5914" t="n">
-        <v>0.1421497631516684</v>
+        <v>0.2387622823226282</v>
       </c>
       <c r="B5914" t="n">
-        <v>0.3077399442855679</v>
+        <v>0.2496948101525196</v>
       </c>
       <c r="C5914" t="n">
-        <v>0.5501102925627637</v>
+        <v>0.5115429075248521</v>
       </c>
     </row>
     <row r="5915">
       <c r="A5915" t="n">
-        <v>0.1731723669076874</v>
+        <v>0.3733187869696401</v>
       </c>
       <c r="B5915" t="n">
-        <v>0.3562161228084841</v>
+        <v>0.2645619896698089</v>
       </c>
       <c r="C5915" t="n">
-        <v>0.4706115102838285</v>
+        <v>0.362119223360551</v>
       </c>
     </row>
     <row r="5916">
       <c r="A5916" t="n">
-        <v>0.1177477981199913</v>
+        <v>0.09634791440580963</v>
       </c>
       <c r="B5916" t="n">
-        <v>0.2685245119012539</v>
+        <v>0.1912253563289825</v>
       </c>
       <c r="C5916" t="n">
-        <v>0.6137276899787547</v>
+        <v>0.7124267292652078</v>
       </c>
     </row>
     <row r="5917">
       <c r="A5917" t="n">
-        <v>0.1887650527078344</v>
+        <v>0.4186639119249642</v>
       </c>
       <c r="B5917" t="n">
-        <v>0.3712431114726859</v>
+        <v>0.2635467410979634</v>
       </c>
       <c r="C5917" t="n">
-        <v>0.4399918358194795</v>
+        <v>0.3177893469770722</v>
       </c>
     </row>
     <row r="5918">
       <c r="A5918" t="n">
-        <v>0.2724122755253873</v>
+        <v>0.6234442851525771</v>
       </c>
       <c r="B5918" t="n">
-        <v>0.4487339196154495</v>
+        <v>0.2343908299905884</v>
       </c>
       <c r="C5918" t="n">
-        <v>0.2788538048591632</v>
+        <v>0.1421648848568346</v>
       </c>
     </row>
     <row r="5919">
       <c r="A5919" t="n">
-        <v>0.3100139383025905</v>
+        <v>0.6847072258795235</v>
       </c>
       <c r="B5919" t="n">
-        <v>0.4411536820797011</v>
+        <v>0.2032158915017831</v>
       </c>
       <c r="C5919" t="n">
-        <v>0.2488323796177084</v>
+        <v>0.1120768826186934</v>
       </c>
     </row>
     <row r="5920">
       <c r="A5920" t="n">
-        <v>0.3143562518529746</v>
+        <v>0.6905282954438452</v>
       </c>
       <c r="B5920" t="n">
-        <v>0.4254000124883593</v>
+        <v>0.1933664045789556</v>
       </c>
       <c r="C5920" t="n">
-        <v>0.2602437356586661</v>
+        <v>0.1161052999771993</v>
       </c>
     </row>
     <row r="5921">
       <c r="A5921" t="n">
-        <v>0.1181574990067867</v>
+        <v>0.09401748420002089</v>
       </c>
       <c r="B5921" t="n">
-        <v>0.2498157219922053</v>
+        <v>0.1743122716712089</v>
       </c>
       <c r="C5921" t="n">
-        <v>0.632026779001008</v>
+        <v>0.7316702441287704</v>
       </c>
     </row>
     <row r="5922">
       <c r="A5922" t="n">
-        <v>0.4566793997742092</v>
+        <v>0.8301346095455663</v>
       </c>
       <c r="B5922" t="n">
-        <v>0.3642392248589149</v>
+        <v>0.1143299162847187</v>
       </c>
       <c r="C5922" t="n">
-        <v>0.1790813753668759</v>
+        <v>0.05553547416971502</v>
       </c>
     </row>
     <row r="5923">
       <c r="A5923" t="n">
-        <v>0.1102178114488435</v>
+        <v>0.05275283002144832</v>
       </c>
       <c r="B5923" t="n">
-        <v>0.2239945454613905</v>
+        <v>0.1153228433541798</v>
       </c>
       <c r="C5923" t="n">
-        <v>0.6657876430897659</v>
+        <v>0.831924326624372</v>
       </c>
     </row>
     <row r="5924">
       <c r="A5924" t="n">
-        <v>0.1591631263319756</v>
+        <v>0.3062669878524777</v>
       </c>
       <c r="B5924" t="n">
-        <v>0.3246559059505124</v>
+        <v>0.2551773177549627</v>
       </c>
       <c r="C5924" t="n">
-        <v>0.5161809677175121</v>
+        <v>0.4385556943925595</v>
       </c>
     </row>
     <row r="5925">
       <c r="A5925" t="n">
-        <v>0.2182784697526427</v>
+        <v>0.5169716761668735</v>
       </c>
       <c r="B5925" t="n">
-        <v>0.3845700062512208</v>
+        <v>0.2375217746406878</v>
       </c>
       <c r="C5925" t="n">
-        <v>0.3971515239961365</v>
+        <v>0.2455065491924386</v>
       </c>
     </row>
     <row r="5926">
       <c r="A5926" t="n">
-        <v>0.1753538060646445</v>
+        <v>0.3830133973226844</v>
       </c>
       <c r="B5926" t="n">
-        <v>0.3685077887516229</v>
+        <v>0.2719088998388591</v>
       </c>
       <c r="C5926" t="n">
-        <v>0.4561384051837326</v>
+        <v>0.3450777028384566</v>
       </c>
     </row>
     <row r="5927">
       <c r="A5927" t="n">
-        <v>0.1808394834658564</v>
+        <v>0.4029389518442554</v>
       </c>
       <c r="B5927" t="n">
-        <v>0.3677939515272592</v>
+        <v>0.264682834422465</v>
       </c>
       <c r="C5927" t="n">
-        <v>0.4513665650068845</v>
+        <v>0.3323782137332797</v>
       </c>
     </row>
     <row r="5928">
       <c r="A5928" t="n">
-        <v>0.3480244058654486</v>
+        <v>0.7391819086906155</v>
       </c>
       <c r="B5928" t="n">
-        <v>0.4196880229605593</v>
+        <v>0.1689496841344369</v>
       </c>
       <c r="C5928" t="n">
-        <v>0.2322875711739921</v>
+        <v>0.09186840717494761</v>
       </c>
     </row>
     <row r="5929">
       <c r="A5929" t="n">
-        <v>0.3683862649993444</v>
+        <v>0.7556202579445166</v>
       </c>
       <c r="B5929" t="n">
-        <v>0.3908236547380914</v>
+        <v>0.1520005949938482</v>
       </c>
       <c r="C5929" t="n">
-        <v>0.2407900802625641</v>
+        <v>0.09237914706163536</v>
       </c>
     </row>
     <row r="5930">
       <c r="A5930" t="n">
-        <v>0.3039594979933021</v>
+        <v>0.6763778711548728</v>
       </c>
       <c r="B5930" t="n">
-        <v>0.4289531315856357</v>
+        <v>0.2009323382928702</v>
       </c>
       <c r="C5930" t="n">
-        <v>0.2670873704210622</v>
+        <v>0.1226897905522571</v>
       </c>
     </row>
     <row r="5931">
       <c r="A5931" t="n">
-        <v>0.197199108581556</v>
+        <v>0.4566566627020441</v>
       </c>
       <c r="B5931" t="n">
-        <v>0.4034580302237503</v>
+        <v>0.2739073865898936</v>
       </c>
       <c r="C5931" t="n">
-        <v>0.3993428611946937</v>
+        <v>0.2694359507080624</v>
       </c>
     </row>
     <row r="5932">
       <c r="A5932" t="n">
-        <v>0.1910455350687381</v>
+        <v>0.4367620225682193</v>
       </c>
       <c r="B5932" t="n">
-        <v>0.3722918847765193</v>
+        <v>0.2572043021790625</v>
       </c>
       <c r="C5932" t="n">
-        <v>0.4366625801547425</v>
+        <v>0.3060336752527184</v>
       </c>
     </row>
     <row r="5933">
